--- a/src/Resources/fixtures/minimal_EE/init.xlsx
+++ b/src/Resources/fixtures/minimal_EE/init.xlsx
@@ -1,42 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewhill/src/ExcelInitBundle/src/Resources/fixtures/minimal_EE/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26500" windowHeight="10900" tabRatio="989" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="attributes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="family main" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="family secondary" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="attribute_groups" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="options" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="channels" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="categories" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="group_types" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="association_types" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="choices" sheetId="11" state="hidden" r:id="rId12"/>
-    <sheet name="attribute_types" sheetId="12" state="hidden" r:id="rId13"/>
-    <sheet name="metric_types" sheetId="13" state="hidden" r:id="rId14"/>
-    <sheet name="metric_units" sheetId="14" state="hidden" r:id="rId15"/>
+    <sheet name="README" sheetId="1" r:id="rId1"/>
+    <sheet name="attributes" sheetId="2" r:id="rId2"/>
+    <sheet name="family main" sheetId="3" r:id="rId3"/>
+    <sheet name="family secondary" sheetId="4" r:id="rId4"/>
+    <sheet name="attribute_groups" sheetId="5" r:id="rId5"/>
+    <sheet name="options" sheetId="6" r:id="rId6"/>
+    <sheet name="channels" sheetId="7" r:id="rId7"/>
+    <sheet name="categories" sheetId="8" r:id="rId8"/>
+    <sheet name="group_types" sheetId="9" r:id="rId9"/>
+    <sheet name="association_types" sheetId="10" r:id="rId10"/>
+    <sheet name="choices" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="attribute_types" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="metric_types" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="metric_units" sheetId="14" state="hidden" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="attribute_groups" vbProcedure="false">attribute_groups!$A$4:$A$100</definedName>
-    <definedName function="false" hidden="false" name="attribute_types" vbProcedure="false">attribute_types!$B$3:$B$14</definedName>
-    <definedName function="false" hidden="false" name="boolean_choices" vbProcedure="false">choices!$A$1:$A$2</definedName>
-    <definedName function="false" hidden="false" name="date_choices" vbProcedure="false">choices!$C$1:$C$3</definedName>
-    <definedName function="false" hidden="false" name="metric_types" vbProcedure="false">metric_types!$B$3:$B$11</definedName>
-    <definedName function="false" hidden="false" name="metric_units" vbProcedure="false">metric_units!$B$3:$B$89</definedName>
-    <definedName function="false" hidden="false" name="validation_choices" vbProcedure="false">choices!$B$1:$B$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">attributes!$B$6:$AU$9</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'family main'!$C$5:$AW$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">attribute_groups!$A$4:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4">attribute_groups!$A$4:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">attributes!$B$6:$AU$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'family main'!$C$5:$AW$8</definedName>
+    <definedName name="attribute_groups">attribute_groups!$A$4:$A$100</definedName>
+    <definedName name="attribute_types">attribute_types!$B$3:$B$14</definedName>
+    <definedName name="boolean_choices">choices!$A$1:$A$2</definedName>
+    <definedName name="date_choices">choices!$C$1:$C$3</definedName>
+    <definedName name="metric_types">metric_types!$B$3:$B$11</definedName>
+    <definedName name="metric_units">metric_units!$B$3:$B$89</definedName>
+    <definedName name="validation_choices">choices!$B$1:$B$3</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -44,8 +54,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -61,8 +71,7 @@
             <charset val="1"/>
           </rPr>
           <t>Insert the name of the locales, separated by ",".
-For example : "en_US, fr_FR"
-</t>
+For example : "en_US, fr_FR"</t>
         </r>
       </text>
     </comment>
@@ -101,12 +110,26 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
+    <comment ref="AA3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Set to 1 if the attribute is required in this family for the concerned channel.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I4" authorId="0">
       <text>
         <r>
@@ -118,8 +141,7 @@
             <charset val="1"/>
           </rPr>
           <t>Insert the name of the locales, separated by ",".
-For example : "en_US, fr_FR"
-</t>
+For example : "en_US, fr_FR"</t>
         </r>
       </text>
     </comment>
@@ -154,6 +176,16 @@
         </r>
       </text>
     </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
     <comment ref="AA3" authorId="0">
       <text>
         <r>
@@ -168,16 +200,6 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
     <comment ref="Y4" authorId="0">
       <text>
         <r>
@@ -209,26 +231,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Set to 1 if the attribute is required in this family for the concerned channel.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -268,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="271">
   <si>
     <t>End user HOWTO</t>
   </si>
@@ -306,7 +314,7 @@
     <t>To create a new family, simply duplicate the tab. All family tabs titles must start with "family"</t>
   </si>
   <si>
-    <t>If an attribute is present in multiple families, only fill the blue and pink columns (attribute properties and translations) once </t>
+    <t>If an attribute is present in multiple families, only fill the blue and pink columns (attribute properties and translations) once</t>
   </si>
   <si>
     <t>To add completion for other channels, simply add columns on the right of the table. The label should be the code of the channel.</t>
@@ -651,9 +659,6 @@
     <t>Group type properties</t>
   </si>
   <si>
-    <t>variant</t>
-  </si>
-  <si>
     <t>VARIANT</t>
   </si>
   <si>
@@ -1075,16 +1080,22 @@
   </si>
   <si>
     <t>TON</t>
+  </si>
+  <si>
+    <t>is_variant</t>
+  </si>
+  <si>
+    <t>Group Code</t>
+  </si>
+  <si>
+    <t>Variant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1093,22 +1104,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1116,7 +1112,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1124,7 +1120,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1132,7 +1128,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1140,7 +1136,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -1181,7 +1177,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1189,161 +1185,95 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1402,13 +1332,551 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2056" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2054" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2052" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2050" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3078" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3076" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3074" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1422,9 +1890,9 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1436,7 +1904,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1446,9 +1914,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1467,9 +1941,9 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1481,7 +1955,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1491,9 +1965,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1502,8 +1982,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1517,7 +1997,7 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1531,7 +2011,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1541,9 +2021,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1562,7 +2048,7 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1576,7 +2062,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1586,19 +2072,127 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5124" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5122" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1612,7 +2206,7 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1626,7 +2220,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1636,9 +2230,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1657,7 +2257,7 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1671,7 +2271,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1681,9 +2281,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1692,483 +2298,699 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.2602040816327"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2" t="s">
+    <row r="26" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2" t="s">
+    <row r="36" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="4" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2" t="s">
+    <row r="41" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" width="8.83203125" style="24"/>
+    <col min="2" max="2" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:2" s="29" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="B4" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="29" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+      <c r="B5" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="28" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+      <c r="B6" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="28" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="24" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+      <c r="B7" s="29" t="s">
         <v>138</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2602040816327"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="0" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="C3" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>145</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="0" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="0" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="0" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B13" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="0" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B14" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>169</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2176,140 +2998,131 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+    </row>
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2317,738 +3130,729 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="B26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>171</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="B28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>171</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="B30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="B33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="B34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="B35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="B36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>173</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="B49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="B50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="B51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="B52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>174</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="B53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="B54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="B55" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="B59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>175</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="B60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="B61" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="B62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="B63" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>176</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="B64" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="B65" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="B66" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>176</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="B67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="B68" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="B79" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>177</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="B80" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>177</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="B81" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
         <v>177</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="B82" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
         <v>177</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="B83" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
         <v>177</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="B84" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
         <v>177</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="B85" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>177</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="B86" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>177</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="B87" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>177</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="B88" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>177</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B88" s="0" t="s">
+      <c r="B89" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3056,354 +3860,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView topLeftCell="S1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.36734693877551"/>
+    <col min="5" max="7" width="8.83203125" style="8"/>
+    <col min="9" max="10" width="8.83203125" style="8"/>
+    <col min="45" max="45" width="8.83203125" style="9"/>
+    <col min="46" max="46" width="8.83203125" style="10"/>
+    <col min="47" max="48" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="AS2" s="0"/>
-      <c r="AT2" s="0"/>
-      <c r="AU2" s="0"/>
-      <c r="AV2" s="0"/>
-    </row>
-    <row r="4" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+    </row>
+    <row r="2" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+    </row>
+    <row r="4" spans="1:48" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:48" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:48" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="U6" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="V6" s="16" t="s">
+      <c r="V6" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="16" t="s">
+      <c r="W6" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="X6" s="16" t="s">
+      <c r="X6" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:48" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="18" t="n">
+      <c r="G7" s="19">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18" t="n">
+      <c r="H7" s="20"/>
+      <c r="I7" s="19">
         <v>0</v>
       </c>
-      <c r="J7" s="18" t="n">
+      <c r="J7" s="19">
         <v>1</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="K7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="8">
         <v>2</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="8">
         <v>0</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3412,414 +4188,377 @@
     <mergeCell ref="C4:Y4"/>
   </mergeCells>
   <dataValidations count="12">
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O7:P8" type="whole">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="O7:P8">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:W8 Y7:Y8" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="W7:W8 Y7:Y8">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L7:L8" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="L7:L8">
       <formula1>validation_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K7:K8" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K8">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F7:G8 I7:J8 N7:N8 Q7:R8" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:G8 I7:J8 N7:N8 Q7:R8">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M7" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="E7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S7" type="decimal">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7">
       <formula1>$O$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C8" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C7:C8">
       <formula1>attribute_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D8" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D7:D8">
       <formula1>attribute_groups</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U7:U8" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7:U8">
       <formula1>metric_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V7:V8" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V8">
       <formula1>metric_units</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
+    <col min="6" max="8" width="8.83203125" style="8"/>
+    <col min="10" max="11" width="8.83203125" style="8"/>
+    <col min="27" max="27" width="8.83203125" style="8"/>
+    <col min="47" max="47" width="8.83203125" style="9"/>
+    <col min="48" max="48" width="8.83203125" style="10"/>
+    <col min="49" max="50" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="5"/>
+      <c r="E1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="AA1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+    </row>
+    <row r="2" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="AA2" s="0"/>
-      <c r="AU2" s="0"/>
-      <c r="AV2" s="0"/>
-      <c r="AW2" s="0"/>
-      <c r="AX2" s="0"/>
-    </row>
-    <row r="3" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="AA2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+    </row>
+    <row r="3" spans="1:50" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="20" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:50" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="V4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="W4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="X4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Y4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AA4" s="21" t="s">
+      <c r="AA4" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:50" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="W5" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="X5" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="Z5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AA5" s="22"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="AA5" s="23"/>
+    </row>
+    <row r="6" spans="1:50" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="18" t="n">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="19">
         <v>1</v>
       </c>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="AA7" s="6" t="n">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="AA7" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3828,546 +4567,500 @@
     <mergeCell ref="D3:Z3"/>
   </mergeCells>
   <dataValidations count="13">
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T6" type="decimal">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T6">
       <formula1>$P$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="F6">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N6" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B7 G6:H7 J6:K7 O6:O7 R6:S7" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7 G6:H7 J6:K7 O6:O7 R6:S7">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L6:L7" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M6:M7" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="M6:M7">
       <formula1>validation_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X6:X7 Z6:Z7" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="X6:X7 Z6:Z7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AA7" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AA6:AA7">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P6:Q7" type="whole">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="P6:Q7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V3:V7" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V7">
       <formula1>metric_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W3:W7" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W7">
       <formula1>metric_units</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D7" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D3:D7">
       <formula1>attribute_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E7" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E3:E7">
       <formula1>attribute_groups</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
+    <col min="6" max="8" width="8.83203125" style="8"/>
+    <col min="10" max="11" width="8.83203125" style="8"/>
+    <col min="27" max="27" width="8.83203125" style="8"/>
+    <col min="47" max="47" width="8.83203125" style="9"/>
+    <col min="48" max="48" width="8.83203125" style="10"/>
+    <col min="49" max="50" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="5"/>
+      <c r="E1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="AA1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+    </row>
+    <row r="2" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="AA2" s="0"/>
-      <c r="AU2" s="0"/>
-      <c r="AV2" s="0"/>
-      <c r="AW2" s="0"/>
-      <c r="AX2" s="0"/>
-    </row>
-    <row r="3" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="AA2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+    </row>
+    <row r="3" spans="1:50" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="20" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:50" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="V4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="W4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="X4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Y4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AA4" s="21" t="s">
+      <c r="AA4" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:50" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="W5" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="X5" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="Z5" s="16" t="s">
+      <c r="Z5" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AA5" s="22"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="AA5" s="23"/>
+    </row>
+    <row r="6" spans="1:50" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="18" t="n">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="19">
         <v>1</v>
       </c>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:Z3"/>
   </mergeCells>
   <dataValidations count="13">
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T6" type="decimal">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T6">
       <formula1>$P$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="F6">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N6" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6 G6:H6 J6:K6 O6 R6:S6" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 G6:H6 J6:K6 O6 R6:S6">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L6" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M6" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="M6">
       <formula1>validation_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X6 Z6" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="X6 Z6">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AA6">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P6:Q6" type="whole">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="P6:Q6">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V3:V6" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V6">
       <formula1>metric_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W3:W6" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W6">
       <formula1>metric_units</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D6" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D3:D6">
       <formula1>attribute_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E6" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E3:E6">
       <formula1>attribute_groups</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.3316326530612"/>
+    <col min="1" max="1" width="8.83203125" style="24"/>
+    <col min="3" max="3" width="8.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="19" t="n">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4375,62 +5068,50 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.3316326530612"/>
+    <col min="1" max="1" width="8.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" ht="26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4438,96 +5119,83 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1016" min="6" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="8.83203125" style="24"/>
+    <col min="3" max="5" width="8.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" customFormat="false" ht="49.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="9.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:5" ht="9.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4536,77 +5204,65 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:E4" type="none">
+    <dataValidation operator="equal" allowBlank="1" showErrorMessage="1" sqref="C4:E4">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.3316326530612"/>
+    <col min="1" max="1" width="8.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" ht="26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4615,75 +5271,65 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" width="8.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:2" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="24"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B3" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -4692,17 +5338,12 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/src/Resources/fixtures/minimal_EE/init.xlsx
+++ b/src/Resources/fixtures/minimal_EE/init.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,10 +18,14 @@
     <sheet name="categories" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="group_types" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="association_types" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="choices" sheetId="11" state="hidden" r:id="rId12"/>
-    <sheet name="attribute_types" sheetId="12" state="hidden" r:id="rId13"/>
-    <sheet name="metric_types" sheetId="13" state="hidden" r:id="rId14"/>
-    <sheet name="metric_units" sheetId="14" state="hidden" r:id="rId15"/>
+    <sheet name="user_groups" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="user_roles" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="users" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="currencies" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="choices" sheetId="15" state="hidden" r:id="rId16"/>
+    <sheet name="attribute_types" sheetId="16" state="hidden" r:id="rId17"/>
+    <sheet name="metric_types" sheetId="17" state="hidden" r:id="rId18"/>
+    <sheet name="metric_units" sheetId="18" state="hidden" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="attribute_groups" vbProcedure="false">attribute_groups!$A$4:$A$100</definedName>
@@ -60,7 +64,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Insert the name of the locales, separated by ",".
+          <t xml:space="preserve">Insert the name of the locales, separated by ",".
 For example : "en_US, fr_FR"
 </t>
         </r>
@@ -76,7 +80,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Insert the allowed extensions, separated by a comma.
+          <t xml:space="preserve">Insert the allowed extensions, separated by a comma.
 For example : 
 jpg, jpeg, png</t>
         </r>
@@ -92,7 +96,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Determines how many characters should be typed for select attributes before an option is presented.
+          <t xml:space="preserve">Determines how many characters should be typed for select attributes before an option is presented.
 This should be used for attributes which have a large number of options.</t>
         </r>
       </text>
@@ -117,7 +121,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Insert the name of the locales, separated by ",".
+          <t xml:space="preserve">Insert the name of the locales, separated by ",".
 For example : "en_US, fr_FR"
 </t>
         </r>
@@ -133,7 +137,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Insert the allowed extensions, separated by a comma.
+          <t xml:space="preserve">Insert the allowed extensions, separated by a comma.
 For example : 
 jpg, jpeg, png</t>
         </r>
@@ -149,7 +153,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Determines how many characters should be typed for select attributes before an option is presented.
+          <t xml:space="preserve">Determines how many characters should be typed for select attributes before an option is presented.
 This should be used for attributes which have a large number of options.</t>
         </r>
       </text>
@@ -164,7 +168,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Set to 1 if the attribute is required in this family for the concerned channel.</t>
+          <t xml:space="preserve">Set to 1 if the attribute is required in this family for the concerned channel.</t>
         </r>
       </text>
     </comment>
@@ -188,7 +192,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Insert the allowed extensions, separated by a comma.
+          <t xml:space="preserve">Insert the allowed extensions, separated by a comma.
 For example : 
 jpg, jpeg, png</t>
         </r>
@@ -204,7 +208,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Determines how many characters should be typed for select attributes before an option is presented.
+          <t xml:space="preserve">Determines how many characters should be typed for select attributes before an option is presented.
 This should be used for attributes which have a large number of options.</t>
         </r>
       </text>
@@ -219,7 +223,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Set to 1 if the attribute is required in this family for the concerned channel.</t>
+          <t xml:space="preserve">Set to 1 if the attribute is required in this family for the concerned channel.</t>
         </r>
       </text>
     </comment>
@@ -243,7 +247,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Multiple locales should be separated by a comma.
+          <t xml:space="preserve">Multiple locales should be separated by a comma.
 For example : "fr_FR, en_US"</t>
         </r>
       </text>
@@ -258,7 +262,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Multiple currency codes should be separated by a comma.
+          <t xml:space="preserve">Multiple currency codes should be separated by a comma.
 For example: "EUR,USD"</t>
         </r>
       </text>
@@ -268,813 +272,1206 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="269">
-  <si>
-    <t>End user HOWTO</t>
-  </si>
-  <si>
-    <t>Global rules</t>
-  </si>
-  <si>
-    <t>Do not modify the headers of the files</t>
-  </si>
-  <si>
-    <t>Do not open this file in Open Office, as it will break the validation</t>
-  </si>
-  <si>
-    <t>Do not save this file with another extension than xlsx</t>
-  </si>
-  <si>
-    <t>Do not modify hidden rows</t>
-  </si>
-  <si>
-    <t>Attributes tab</t>
-  </si>
-  <si>
-    <t>The attributes tab can be used to define the properties of attributes which are not linked to families, or which are shared by families.</t>
-  </si>
-  <si>
-    <t>This tab can be duplicated to shorten the list. All attributes tab titles should start with "attributes"</t>
-  </si>
-  <si>
-    <t>Family tabs</t>
-  </si>
-  <si>
-    <t>The family tab contains all information for a family : code, labels, attributes and completion rules</t>
-  </si>
-  <si>
-    <t>To create a new family, simply duplicate the tab. All family tabs titles must start with "family"</t>
-  </si>
-  <si>
-    <t>If an attribute is present in multiple families, only fill the blue and pink columns (attribute properties and translations) once </t>
-  </si>
-  <si>
-    <t>To add completion for other channels, simply add columns on the right of the table. The label should be the code of the channel.</t>
-  </si>
-  <si>
-    <t>Attribute groups</t>
-  </si>
-  <si>
-    <t>This tab contains all informations for attribute groups</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>This tab contains the list of options for select attributes.</t>
-  </si>
-  <si>
-    <t>This tab can be duplicated to divide the contents by attribute. All options tab titles should start with "options"</t>
-  </si>
-  <si>
-    <t>Channels</t>
-  </si>
-  <si>
-    <t>This tab contains all information about channels.</t>
-  </si>
-  <si>
-    <t>After editing this tab, you might have to update your family tabs so they use the right family codes</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>This tab contains all information about categories</t>
-  </si>
-  <si>
-    <t>This tab can be duplicated to divide its content between trees. All category tabs should start with "categories"</t>
-  </si>
-  <si>
-    <t>Association types</t>
-  </si>
-  <si>
-    <t>This tab contains all information about association types</t>
-  </si>
-  <si>
-    <t>Group types</t>
-  </si>
-  <si>
-    <t>This tab contains all information about group types</t>
-  </si>
-  <si>
-    <t>Integrator HOWTO</t>
-  </si>
-  <si>
-    <t>All tabs contain a hidden row with the codes of the properties. If you add some columns, do not forget to update them.</t>
-  </si>
-  <si>
-    <t>The codes for label translations are always of the form "label-&lt;locale&gt;". For example, the french label has the code "label-fr_FR"</t>
-  </si>
-  <si>
-    <t>Common and unaffected attribute properties</t>
-  </si>
-  <si>
-    <t>Labels</t>
-  </si>
-  <si>
-    <t>Attribute properties</t>
-  </si>
-  <si>
-    <t>Attribute code</t>
-  </si>
-  <si>
-    <t>en_US</t>
-  </si>
-  <si>
-    <t>Attribute type</t>
-  </si>
-  <si>
-    <t>Attribute group</t>
-  </si>
-  <si>
-    <t>Sort order</t>
-  </si>
-  <si>
-    <t>Is unique*</t>
-  </si>
-  <si>
-    <t>Is localizable*</t>
-  </si>
-  <si>
-    <t>Specific to locales</t>
-  </si>
-  <si>
-    <t>Is scopable*</t>
-  </si>
-  <si>
-    <t>Useable as grid filter*</t>
-  </si>
-  <si>
-    <t>Max characters</t>
-  </si>
-  <si>
-    <t>Validation rule</t>
-  </si>
-  <si>
-    <t>Validation regexp</t>
-  </si>
-  <si>
-    <t>Rich text</t>
-  </si>
-  <si>
-    <t>Minimum number</t>
-  </si>
-  <si>
-    <t>Maximum number</t>
-  </si>
-  <si>
-    <t>Decimals allowed</t>
-  </si>
-  <si>
-    <t>Negative allowed</t>
-  </si>
-  <si>
-    <t>Minimum date</t>
-  </si>
-  <si>
-    <t>Maximum date</t>
-  </si>
-  <si>
-    <t>Metric family</t>
-  </si>
-  <si>
-    <t>Default metric  unit</t>
-  </si>
-  <si>
-    <t>Max file size</t>
-  </si>
-  <si>
-    <t>Allowed extensions</t>
-  </si>
-  <si>
-    <t>Minimum input length</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>label-en_US</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>sort_order</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>localizable</t>
-  </si>
-  <si>
-    <t>available_locales</t>
-  </si>
-  <si>
-    <t>scopable</t>
-  </si>
-  <si>
-    <t>useable_as_grid_filter</t>
-  </si>
-  <si>
-    <t>max_characters</t>
-  </si>
-  <si>
-    <t>validation_rule</t>
-  </si>
-  <si>
-    <t>validation_regexp</t>
-  </si>
-  <si>
-    <t>wysiwyg_enabled</t>
-  </si>
-  <si>
-    <t>number_min</t>
-  </si>
-  <si>
-    <t>number_max</t>
-  </si>
-  <si>
-    <t>decimals_allowed</t>
-  </si>
-  <si>
-    <t>negative_allowed</t>
-  </si>
-  <si>
-    <t>date_min</t>
-  </si>
-  <si>
-    <t>date_max</t>
-  </si>
-  <si>
-    <t>metric_family</t>
-  </si>
-  <si>
-    <t>default_metric_unit</t>
-  </si>
-  <si>
-    <t>max_file_size</t>
-  </si>
-  <si>
-    <t>allowed_extensions</t>
-  </si>
-  <si>
-    <t>minimum_input length</t>
-  </si>
-  <si>
-    <t>sku</t>
-  </si>
-  <si>
-    <t>Code article</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Family code</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>Completeness</t>
-  </si>
-  <si>
-    <t>Use as label</t>
-  </si>
-  <si>
-    <t>use_as_label</t>
-  </si>
-  <si>
-    <t>second_family</t>
-  </si>
-  <si>
-    <t>Second family</t>
-  </si>
-  <si>
-    <t>Group properties</t>
-  </si>
-  <si>
-    <t>Group code</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Option properties</t>
-  </si>
-  <si>
-    <t>Option code</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>Channel properties</t>
-  </si>
-  <si>
-    <t>Channel code</t>
-  </si>
-  <si>
-    <t>Channel label</t>
-  </si>
-  <si>
-    <t>Channel locales</t>
-  </si>
-  <si>
-    <t>Channel currencies</t>
-  </si>
-  <si>
-    <t>Category tree</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>locales</t>
-  </si>
-  <si>
-    <t>currencies</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Category properties</t>
-  </si>
-  <si>
-    <t>Category code</t>
-  </si>
-  <si>
-    <t>Parent category code</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>Main category</t>
-  </si>
-  <si>
-    <t>Group type properties</t>
-  </si>
-  <si>
-    <t>variant</t>
-  </si>
-  <si>
-    <t>VARIANT</t>
-  </si>
-  <si>
-    <t>RELATED</t>
-  </si>
-  <si>
-    <t>Association type properties</t>
-  </si>
-  <si>
-    <t>Association type code</t>
-  </si>
-  <si>
-    <t>X_SELL</t>
-  </si>
-  <si>
-    <t>Cross sell</t>
-  </si>
-  <si>
-    <t>UPSELL</t>
-  </si>
-  <si>
-    <t>Upsell</t>
-  </si>
-  <si>
-    <t>SUBSTITUTION</t>
-  </si>
-  <si>
-    <t>Substitution</t>
-  </si>
-  <si>
-    <t>PACK</t>
-  </si>
-  <si>
-    <t>Pack</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>regexp</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>Attribute type code</t>
-  </si>
-  <si>
-    <t>Attribute type label</t>
-  </si>
-  <si>
-    <t>pim_catalog_identifier</t>
-  </si>
-  <si>
-    <t>pim_catalog_text</t>
-  </si>
-  <si>
-    <t>pim_catalog_textarea</t>
-  </si>
-  <si>
-    <t>Text area</t>
-  </si>
-  <si>
-    <t>pim_catalog_multiselect</t>
-  </si>
-  <si>
-    <t>Multiple select</t>
-  </si>
-  <si>
-    <t>pim_catalog_simpleselect</t>
-  </si>
-  <si>
-    <t>Simple select</t>
-  </si>
-  <si>
-    <t>pim_catalog_price_collection</t>
-  </si>
-  <si>
-    <t>Price collection</t>
-  </si>
-  <si>
-    <t>pim_catalog_number</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>pim_catalog_boolean</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>pim_catalog_date</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>pim_catalog_file</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>pim_catalog_image</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>pim_catalog_metric</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Binary</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Voltage</t>
-  </si>
-  <si>
-    <t>Intensity</t>
-  </si>
-  <si>
-    <t>Resistance</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>ACRE</t>
-  </si>
-  <si>
-    <t>ARE</t>
-  </si>
-  <si>
-    <t>ARPENT</t>
-  </si>
-  <si>
-    <t>CENTIARE</t>
-  </si>
-  <si>
-    <t>HECTARE</t>
-  </si>
-  <si>
-    <t>SQUARE_CENTIMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_DECIMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_DEKAMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_FOOT</t>
-  </si>
-  <si>
-    <t>SQUARE_FURLONG</t>
-  </si>
-  <si>
-    <t>SQUARE_HECTOMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_INCH</t>
-  </si>
-  <si>
-    <t>SQUARE_KILOMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_METER</t>
-  </si>
-  <si>
-    <t>SQUARE_MIL</t>
-  </si>
-  <si>
-    <t>SQUARE_MILE</t>
-  </si>
-  <si>
-    <t>SQUARE_MILLIMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_YARD</t>
-  </si>
-  <si>
-    <t>BIT</t>
-  </si>
-  <si>
-    <t>BYTE</t>
-  </si>
-  <si>
-    <t>KILOBYTE</t>
-  </si>
-  <si>
-    <t>MEGABYTE</t>
-  </si>
-  <si>
-    <t>GIGABYTE</t>
-  </si>
-  <si>
-    <t>TERABYTE</t>
-  </si>
-  <si>
-    <t>GIGAHERTZ</t>
-  </si>
-  <si>
-    <t>KILOHERTZ</t>
-  </si>
-  <si>
-    <t>MEGAHERTZ</t>
-  </si>
-  <si>
-    <t>TERAHERTZ</t>
-  </si>
-  <si>
-    <t>HERTZ</t>
-  </si>
-  <si>
-    <t>CENTIMETER</t>
-  </si>
-  <si>
-    <t>CHAIN</t>
-  </si>
-  <si>
-    <t>DECIMETER</t>
-  </si>
-  <si>
-    <t>DEKAMETER</t>
-  </si>
-  <si>
-    <t>FEET</t>
-  </si>
-  <si>
-    <t>FURLONG</t>
-  </si>
-  <si>
-    <t>INCH</t>
-  </si>
-  <si>
-    <t>HECTOMETER</t>
-  </si>
-  <si>
-    <t>KILOMETER</t>
-  </si>
-  <si>
-    <t>METER</t>
-  </si>
-  <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>MILE</t>
-  </si>
-  <si>
-    <t>MILLIMETER</t>
-  </si>
-  <si>
-    <t>YARD</t>
-  </si>
-  <si>
-    <t>GIGAWATT</t>
-  </si>
-  <si>
-    <t>KILOWATT</t>
-  </si>
-  <si>
-    <t>MEGAWATT</t>
-  </si>
-  <si>
-    <t>TERAWATT</t>
-  </si>
-  <si>
-    <t>WATT</t>
-  </si>
-  <si>
-    <t>FOOT_PER_SECOND</t>
-  </si>
-  <si>
-    <t>FOOT_PER_HOUR</t>
-  </si>
-  <si>
-    <t>KILOMETER_PER_HOUR</t>
-  </si>
-  <si>
-    <t>METER_PER_HOUR</t>
-  </si>
-  <si>
-    <t>METER_PER_MINUTE</t>
-  </si>
-  <si>
-    <t>METER_PER_SECOND</t>
-  </si>
-  <si>
-    <t>MILE_PER_HOUR</t>
-  </si>
-  <si>
-    <t>YARD_PER_HOUR</t>
-  </si>
-  <si>
-    <t>CELSIUS</t>
-  </si>
-  <si>
-    <t>FAHRENHEIT</t>
-  </si>
-  <si>
-    <t>KELVIN</t>
-  </si>
-  <si>
-    <t>RANKINE</t>
-  </si>
-  <si>
-    <t>REAUMUR</t>
-  </si>
-  <si>
-    <t>BARREL</t>
-  </si>
-  <si>
-    <t>CENTILITER</t>
-  </si>
-  <si>
-    <t>CUBIC_CENTIMETER</t>
-  </si>
-  <si>
-    <t>CUBIC_DECIMETER</t>
-  </si>
-  <si>
-    <t>CUBIC_FOOT</t>
-  </si>
-  <si>
-    <t>CUBIC_INCH</t>
-  </si>
-  <si>
-    <t>CUBIC_METER</t>
-  </si>
-  <si>
-    <t>CUBIC_MILLIMETER</t>
-  </si>
-  <si>
-    <t>CUBIC_YARD</t>
-  </si>
-  <si>
-    <t>DECILITER</t>
-  </si>
-  <si>
-    <t>GALLON</t>
-  </si>
-  <si>
-    <t>LITER</t>
-  </si>
-  <si>
-    <t>MILLILITER</t>
-  </si>
-  <si>
-    <t>OUNCE</t>
-  </si>
-  <si>
-    <t>PINT</t>
-  </si>
-  <si>
-    <t>DENIER</t>
-  </si>
-  <si>
-    <t>GRAIN</t>
-  </si>
-  <si>
-    <t>GRAM</t>
-  </si>
-  <si>
-    <t>KILOGRAM</t>
-  </si>
-  <si>
-    <t>LIVRE</t>
-  </si>
-  <si>
-    <t>MARC</t>
-  </si>
-  <si>
-    <t>MILLIGRAM</t>
-  </si>
-  <si>
-    <t>ONCE</t>
-  </si>
-  <si>
-    <t>POUND</t>
-  </si>
-  <si>
-    <t>TON</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="400">
+  <si>
+    <t xml:space="preserve">End user HOWTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not modify the headers of the files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not open this file in Open Office, as it will break the validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not save this file with another extension than xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not modify hidden rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attributes tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The attributes tab can be used to define the properties of attributes which are not linked to families, or which are shared by families.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab can be duplicated to shorten the list. All attributes tab titles should start with "attributes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family tabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The family tab contains all information for a family : code, labels, attributes and completion rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To create a new family, simply duplicate the tab. All family tabs titles must start with "family"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If an attribute is present in multiple families, only fill the blue and pink columns (attribute properties and translations) once </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To add completion for other channels, simply add columns on the right of the table. The label should be the code of the channel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all informations for attribute groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains the list of options for select attributes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab can be duplicated to divide the contents by attribute. All options tab titles should start with "options"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all information about channels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After editing this tab, you might have to update your family tabs so they use the right family codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all information about categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab can be duplicated to divide its content between trees. All category tabs should start with "categories"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all information about association types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all information about group types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrator HOWTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All tabs contain a hidden row with the codes of the properties. If you add some columns, do not forget to update them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The codes for label translations are always of the form "label-&lt;locale&gt;". For example, the french label has the code "label-fr_FR"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common and unaffected attribute properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is unique*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is localizable*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific to locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is scopable*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Useable as grid filter*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation regexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimals allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default metric  unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max file size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowed extensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum input length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label-en_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">localizable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">available_locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scopable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useable_as_grid_filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation_rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation_regexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wysiwyg_enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimals_allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metric_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_metric_unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_file_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allowed_extensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum_input length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completeness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use as label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use_as_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel currencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent category code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group type properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association type properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association type code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X_SELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross sell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPSELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upsell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSTITUTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE_ADMINISTRATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE_CATALOG_MANAGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalog manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE_USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalog_locale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_locale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalog_scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XFU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZRZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute type code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute type label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_textarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_multiselect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_simpleselect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_price_collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARPENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTIARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HECTARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_CENTIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_DECIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_DEKAMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_FOOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_FURLONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_HECTOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_KILOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_METER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_MIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_MILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_MILLIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_YARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOBYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGABYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGABYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERABYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGAHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGAHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERAHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEKAMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURLONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HECTOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGAWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGAWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERAWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOT_PER_SECOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOT_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOMETER_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER_PER_MINUTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER_PER_SECOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILE_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YARD_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELSIUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAHRENHEIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KELVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANKINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REAUMUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARREL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTILITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_CENTIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_DECIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_FOOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_METER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_MILLIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_YARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECILITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLILITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUNCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIVRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLIGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TON</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1479,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1418,9 +1815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>927720</xdr:colOff>
+      <xdr:colOff>927360</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1430,7 +1827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="8466480" cy="9531360"/>
+          <a:ext cx="8342280" cy="9531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1463,9 +1860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>927720</xdr:colOff>
+      <xdr:colOff>927360</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1475,7 +1872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="8466480" cy="9531360"/>
+          <a:ext cx="8342280" cy="9531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1513,9 +1910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>79920</xdr:colOff>
+      <xdr:colOff>79560</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1525,7 +1922,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6047280" cy="10201680"/>
+          <a:ext cx="5951520" cy="10201320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1558,9 +1955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>79920</xdr:colOff>
+      <xdr:colOff>79560</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1570,7 +1967,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6047280" cy="10201680"/>
+          <a:ext cx="5951520" cy="10201320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1608,9 +2005,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>927720</xdr:colOff>
+      <xdr:colOff>927360</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1620,7 +2017,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="9619200" cy="9531360"/>
+          <a:ext cx="9475920" cy="9531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1653,9 +2050,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>927720</xdr:colOff>
+      <xdr:colOff>927360</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1665,7 +2062,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="9619200" cy="9531360"/>
+          <a:ext cx="9475920" cy="9531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1705,8 +2102,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,15 +2290,15 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="28" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1982,54 +2379,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
-        <v>0</v>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2039,129 +2446,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2180,129 +2507,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>181</v>
+      <c r="E2" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2321,7 +2620,852 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B102"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -2329,14 +3473,353 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.1224489795918"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>146</v>
+        <v>277</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B89"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -2345,703 +3828,703 @@
         <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>182</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>183</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>184</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>185</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>186</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>187</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>188</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>189</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>194</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>196</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>198</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>199</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>200</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>201</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>203</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>205</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>206</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>208</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>172</v>
+        <v>303</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>211</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>214</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>215</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>216</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>217</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>218</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>219</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>220</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>221</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>222</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>223</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>224</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>225</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>226</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>227</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>228</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>229</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>174</v>
+        <v>305</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>230</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>231</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>232</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>233</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>234</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>236</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>237</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>238</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>239</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>240</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>241</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>242</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>243</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>244</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>245</v>
+        <v>376</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>246</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>247</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>248</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>249</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>250</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>251</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>252</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>253</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>254</v>
+        <v>385</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>255</v>
+        <v>386</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>256</v>
+        <v>387</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>257</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>258</v>
+        <v>389</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>259</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>260</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>261</v>
+        <v>392</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>262</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>263</v>
+        <v>394</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>264</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>265</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>266</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>257</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>267</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>268</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3068,36 +4551,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3485,42 +4968,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3899,48 +5382,48 @@
   </sheetPr>
   <dimension ref="A1:AX6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4312,10 +5795,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.0663265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4398,9 +5880,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4462,13 +5943,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1016" min="6" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4566,9 +6046,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4644,9 +6123,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/src/Resources/fixtures/minimal_EE/init.xlsx
+++ b/src/Resources/fixtures/minimal_EE/init.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="400">
   <si>
     <t xml:space="preserve">End user HOWTO</t>
   </si>
@@ -655,7 +655,7 @@
     <t xml:space="preserve">Group type properties</t>
   </si>
   <si>
-    <t xml:space="preserve">variant</t>
+    <t xml:space="preserve">is_variant</t>
   </si>
   <si>
     <t xml:space="preserve">VARIANT</t>
@@ -1814,10 +1814,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>927360</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>326880</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1827,7 +1827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="8342280" cy="9531000"/>
+          <a:ext cx="6160680" cy="9530640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1859,10 +1859,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>927360</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>326880</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1872,7 +1872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="8342280" cy="9531000"/>
+          <a:ext cx="6160680" cy="9530640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1910,9 +1910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>79560</xdr:colOff>
+      <xdr:colOff>79200</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1922,7 +1922,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="5951520" cy="10201320"/>
+          <a:ext cx="5865480" cy="10200960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1955,9 +1955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>79560</xdr:colOff>
+      <xdr:colOff>79200</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1967,7 +1967,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="5951520" cy="10201320"/>
+          <a:ext cx="5865480" cy="10200960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2004,10 +2004,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>927360</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>326880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2017,7 +2017,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="9475920" cy="9531000"/>
+          <a:ext cx="6760800" cy="9530640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2049,10 +2049,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>927360</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>326880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2062,7 +2062,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="9475920" cy="9531000"/>
+          <a:ext cx="6760800" cy="9530640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2102,8 +2102,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.86224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,15 +2289,14 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="47.1122448979592"/>
   </cols>
   <sheetData>
     <row r="1" s="28" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2387,7 +2385,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,9 +2452,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,17 +2513,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,9 +2620,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,9 +3463,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.1224489795918"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -3524,15 +3512,15 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,15 +3653,15 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,15 +3794,15 @@
   </sheetPr>
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,36 +4539,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4968,42 +4953,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="13.5"/>
+    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5388,42 +5373,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="13.5"/>
+    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5795,9 +5780,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5880,8 +5866,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5943,12 +5930,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1016" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6046,8 +6034,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6115,17 +6104,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6134,7 +6122,7 @@
       </c>
       <c r="B1" s="24"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
         <v>60</v>
       </c>
@@ -6142,27 +6130,19 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6171,7 +6151,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B5" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3:B4" type="list">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/src/Resources/fixtures/minimal_EE/init.xlsx
+++ b/src/Resources/fixtures/minimal_EE/init.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -60,7 +60,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Insert the name of the locales, separated by ",".
+          <t xml:space="preserve">Insert the name of the locales, separated by ",".
 For example : "en_US, fr_FR"
 </t>
         </r>
@@ -76,7 +76,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Insert the allowed extensions, separated by a comma.
+          <t xml:space="preserve">Insert the allowed extensions, separated by a comma.
 For example : 
 jpg, jpeg, png</t>
         </r>
@@ -92,7 +92,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Determines how many characters should be typed for select attributes before an option is presented.
+          <t xml:space="preserve">Determines how many characters should be typed for select attributes before an option is presented.
 This should be used for attributes which have a large number of options.</t>
         </r>
       </text>
@@ -117,7 +117,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Insert the name of the locales, separated by ",".
+          <t xml:space="preserve">Insert the name of the locales, separated by ",".
 For example : "en_US, fr_FR"
 </t>
         </r>
@@ -133,7 +133,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Insert the allowed extensions, separated by a comma.
+          <t xml:space="preserve">Insert the allowed extensions, separated by a comma.
 For example : 
 jpg, jpeg, png</t>
         </r>
@@ -149,7 +149,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Determines how many characters should be typed for select attributes before an option is presented.
+          <t xml:space="preserve">Determines how many characters should be typed for select attributes before an option is presented.
 This should be used for attributes which have a large number of options.</t>
         </r>
       </text>
@@ -164,7 +164,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Set to 1 if the attribute is required in this family for the concerned channel.</t>
+          <t xml:space="preserve">Set to 1 if the attribute is required in this family for the concerned channel.</t>
         </r>
       </text>
     </comment>
@@ -188,7 +188,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Insert the allowed extensions, separated by a comma.
+          <t xml:space="preserve">Insert the allowed extensions, separated by a comma.
 For example : 
 jpg, jpeg, png</t>
         </r>
@@ -204,7 +204,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Determines how many characters should be typed for select attributes before an option is presented.
+          <t xml:space="preserve">Determines how many characters should be typed for select attributes before an option is presented.
 This should be used for attributes which have a large number of options.</t>
         </r>
       </text>
@@ -219,7 +219,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Set to 1 if the attribute is required in this family for the concerned channel.</t>
+          <t xml:space="preserve">Set to 1 if the attribute is required in this family for the concerned channel.</t>
         </r>
       </text>
     </comment>
@@ -243,7 +243,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Multiple locales should be separated by a comma.
+          <t xml:space="preserve">Multiple locales should be separated by a comma.
 For example : "fr_FR, en_US"</t>
         </r>
       </text>
@@ -258,7 +258,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Multiple currency codes should be separated by a comma.
+          <t xml:space="preserve">Multiple currency codes should be separated by a comma.
 For example: "EUR,USD"</t>
         </r>
       </text>
@@ -268,813 +268,816 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="269">
-  <si>
-    <t>End user HOWTO</t>
-  </si>
-  <si>
-    <t>Global rules</t>
-  </si>
-  <si>
-    <t>Do not modify the headers of the files</t>
-  </si>
-  <si>
-    <t>Do not open this file in Open Office, as it will break the validation</t>
-  </si>
-  <si>
-    <t>Do not save this file with another extension than xlsx</t>
-  </si>
-  <si>
-    <t>Do not modify hidden rows</t>
-  </si>
-  <si>
-    <t>Attributes tab</t>
-  </si>
-  <si>
-    <t>The attributes tab can be used to define the properties of attributes which are not linked to families, or which are shared by families.</t>
-  </si>
-  <si>
-    <t>This tab can be duplicated to shorten the list. All attributes tab titles should start with "attributes"</t>
-  </si>
-  <si>
-    <t>Family tabs</t>
-  </si>
-  <si>
-    <t>The family tab contains all information for a family : code, labels, attributes and completion rules</t>
-  </si>
-  <si>
-    <t>To create a new family, simply duplicate the tab. All family tabs titles must start with "family"</t>
-  </si>
-  <si>
-    <t>If an attribute is present in multiple families, only fill the blue and pink columns (attribute properties and translations) once </t>
-  </si>
-  <si>
-    <t>To add completion for other channels, simply add columns on the right of the table. The label should be the code of the channel.</t>
-  </si>
-  <si>
-    <t>Attribute groups</t>
-  </si>
-  <si>
-    <t>This tab contains all informations for attribute groups</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>This tab contains the list of options for select attributes.</t>
-  </si>
-  <si>
-    <t>This tab can be duplicated to divide the contents by attribute. All options tab titles should start with "options"</t>
-  </si>
-  <si>
-    <t>Channels</t>
-  </si>
-  <si>
-    <t>This tab contains all information about channels.</t>
-  </si>
-  <si>
-    <t>After editing this tab, you might have to update your family tabs so they use the right family codes</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>This tab contains all information about categories</t>
-  </si>
-  <si>
-    <t>This tab can be duplicated to divide its content between trees. All category tabs should start with "categories"</t>
-  </si>
-  <si>
-    <t>Association types</t>
-  </si>
-  <si>
-    <t>This tab contains all information about association types</t>
-  </si>
-  <si>
-    <t>Group types</t>
-  </si>
-  <si>
-    <t>This tab contains all information about group types</t>
-  </si>
-  <si>
-    <t>Integrator HOWTO</t>
-  </si>
-  <si>
-    <t>All tabs contain a hidden row with the codes of the properties. If you add some columns, do not forget to update them.</t>
-  </si>
-  <si>
-    <t>The codes for label translations are always of the form "label-&lt;locale&gt;". For example, the french label has the code "label-fr_FR"</t>
-  </si>
-  <si>
-    <t>Common and unaffected attribute properties</t>
-  </si>
-  <si>
-    <t>Labels</t>
-  </si>
-  <si>
-    <t>Attribute properties</t>
-  </si>
-  <si>
-    <t>Attribute code</t>
-  </si>
-  <si>
-    <t>en_US</t>
-  </si>
-  <si>
-    <t>Attribute type</t>
-  </si>
-  <si>
-    <t>Attribute group</t>
-  </si>
-  <si>
-    <t>Sort order</t>
-  </si>
-  <si>
-    <t>Is unique*</t>
-  </si>
-  <si>
-    <t>Is localizable*</t>
-  </si>
-  <si>
-    <t>Specific to locales</t>
-  </si>
-  <si>
-    <t>Is scopable*</t>
-  </si>
-  <si>
-    <t>Useable as grid filter*</t>
-  </si>
-  <si>
-    <t>Max characters</t>
-  </si>
-  <si>
-    <t>Validation rule</t>
-  </si>
-  <si>
-    <t>Validation regexp</t>
-  </si>
-  <si>
-    <t>Rich text</t>
-  </si>
-  <si>
-    <t>Minimum number</t>
-  </si>
-  <si>
-    <t>Maximum number</t>
-  </si>
-  <si>
-    <t>Decimals allowed</t>
-  </si>
-  <si>
-    <t>Negative allowed</t>
-  </si>
-  <si>
-    <t>Minimum date</t>
-  </si>
-  <si>
-    <t>Maximum date</t>
-  </si>
-  <si>
-    <t>Metric family</t>
-  </si>
-  <si>
-    <t>Default metric  unit</t>
-  </si>
-  <si>
-    <t>Max file size</t>
-  </si>
-  <si>
-    <t>Allowed extensions</t>
-  </si>
-  <si>
-    <t>Minimum input length</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>label-en_US</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>sort_order</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>localizable</t>
-  </si>
-  <si>
-    <t>available_locales</t>
-  </si>
-  <si>
-    <t>scopable</t>
-  </si>
-  <si>
-    <t>useable_as_grid_filter</t>
-  </si>
-  <si>
-    <t>max_characters</t>
-  </si>
-  <si>
-    <t>validation_rule</t>
-  </si>
-  <si>
-    <t>validation_regexp</t>
-  </si>
-  <si>
-    <t>wysiwyg_enabled</t>
-  </si>
-  <si>
-    <t>number_min</t>
-  </si>
-  <si>
-    <t>number_max</t>
-  </si>
-  <si>
-    <t>decimals_allowed</t>
-  </si>
-  <si>
-    <t>negative_allowed</t>
-  </si>
-  <si>
-    <t>date_min</t>
-  </si>
-  <si>
-    <t>date_max</t>
-  </si>
-  <si>
-    <t>metric_family</t>
-  </si>
-  <si>
-    <t>default_metric_unit</t>
-  </si>
-  <si>
-    <t>max_file_size</t>
-  </si>
-  <si>
-    <t>allowed_extensions</t>
-  </si>
-  <si>
-    <t>minimum_input length</t>
-  </si>
-  <si>
-    <t>sku</t>
-  </si>
-  <si>
-    <t>Code article</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Family code</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>Completeness</t>
-  </si>
-  <si>
-    <t>Use as label</t>
-  </si>
-  <si>
-    <t>use_as_label</t>
-  </si>
-  <si>
-    <t>second_family</t>
-  </si>
-  <si>
-    <t>Second family</t>
-  </si>
-  <si>
-    <t>Group properties</t>
-  </si>
-  <si>
-    <t>Group code</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Option properties</t>
-  </si>
-  <si>
-    <t>Option code</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>Channel properties</t>
-  </si>
-  <si>
-    <t>Channel code</t>
-  </si>
-  <si>
-    <t>Channel label</t>
-  </si>
-  <si>
-    <t>Channel locales</t>
-  </si>
-  <si>
-    <t>Channel currencies</t>
-  </si>
-  <si>
-    <t>Category tree</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>locales</t>
-  </si>
-  <si>
-    <t>currencies</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Category properties</t>
-  </si>
-  <si>
-    <t>Category code</t>
-  </si>
-  <si>
-    <t>Parent category code</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>Main category</t>
-  </si>
-  <si>
-    <t>Group type properties</t>
-  </si>
-  <si>
-    <t>variant</t>
-  </si>
-  <si>
-    <t>VARIANT</t>
-  </si>
-  <si>
-    <t>RELATED</t>
-  </si>
-  <si>
-    <t>Association type properties</t>
-  </si>
-  <si>
-    <t>Association type code</t>
-  </si>
-  <si>
-    <t>X_SELL</t>
-  </si>
-  <si>
-    <t>Cross sell</t>
-  </si>
-  <si>
-    <t>UPSELL</t>
-  </si>
-  <si>
-    <t>Upsell</t>
-  </si>
-  <si>
-    <t>SUBSTITUTION</t>
-  </si>
-  <si>
-    <t>Substitution</t>
-  </si>
-  <si>
-    <t>PACK</t>
-  </si>
-  <si>
-    <t>Pack</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>regexp</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>Attribute type code</t>
-  </si>
-  <si>
-    <t>Attribute type label</t>
-  </si>
-  <si>
-    <t>pim_catalog_identifier</t>
-  </si>
-  <si>
-    <t>pim_catalog_text</t>
-  </si>
-  <si>
-    <t>pim_catalog_textarea</t>
-  </si>
-  <si>
-    <t>Text area</t>
-  </si>
-  <si>
-    <t>pim_catalog_multiselect</t>
-  </si>
-  <si>
-    <t>Multiple select</t>
-  </si>
-  <si>
-    <t>pim_catalog_simpleselect</t>
-  </si>
-  <si>
-    <t>Simple select</t>
-  </si>
-  <si>
-    <t>pim_catalog_price_collection</t>
-  </si>
-  <si>
-    <t>Price collection</t>
-  </si>
-  <si>
-    <t>pim_catalog_number</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>pim_catalog_boolean</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>pim_catalog_date</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>pim_catalog_file</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>pim_catalog_image</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>pim_catalog_metric</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Binary</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Voltage</t>
-  </si>
-  <si>
-    <t>Intensity</t>
-  </si>
-  <si>
-    <t>Resistance</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>ACRE</t>
-  </si>
-  <si>
-    <t>ARE</t>
-  </si>
-  <si>
-    <t>ARPENT</t>
-  </si>
-  <si>
-    <t>CENTIARE</t>
-  </si>
-  <si>
-    <t>HECTARE</t>
-  </si>
-  <si>
-    <t>SQUARE_CENTIMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_DECIMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_DEKAMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_FOOT</t>
-  </si>
-  <si>
-    <t>SQUARE_FURLONG</t>
-  </si>
-  <si>
-    <t>SQUARE_HECTOMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_INCH</t>
-  </si>
-  <si>
-    <t>SQUARE_KILOMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_METER</t>
-  </si>
-  <si>
-    <t>SQUARE_MIL</t>
-  </si>
-  <si>
-    <t>SQUARE_MILE</t>
-  </si>
-  <si>
-    <t>SQUARE_MILLIMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_YARD</t>
-  </si>
-  <si>
-    <t>BIT</t>
-  </si>
-  <si>
-    <t>BYTE</t>
-  </si>
-  <si>
-    <t>KILOBYTE</t>
-  </si>
-  <si>
-    <t>MEGABYTE</t>
-  </si>
-  <si>
-    <t>GIGABYTE</t>
-  </si>
-  <si>
-    <t>TERABYTE</t>
-  </si>
-  <si>
-    <t>GIGAHERTZ</t>
-  </si>
-  <si>
-    <t>KILOHERTZ</t>
-  </si>
-  <si>
-    <t>MEGAHERTZ</t>
-  </si>
-  <si>
-    <t>TERAHERTZ</t>
-  </si>
-  <si>
-    <t>HERTZ</t>
-  </si>
-  <si>
-    <t>CENTIMETER</t>
-  </si>
-  <si>
-    <t>CHAIN</t>
-  </si>
-  <si>
-    <t>DECIMETER</t>
-  </si>
-  <si>
-    <t>DEKAMETER</t>
-  </si>
-  <si>
-    <t>FEET</t>
-  </si>
-  <si>
-    <t>FURLONG</t>
-  </si>
-  <si>
-    <t>INCH</t>
-  </si>
-  <si>
-    <t>HECTOMETER</t>
-  </si>
-  <si>
-    <t>KILOMETER</t>
-  </si>
-  <si>
-    <t>METER</t>
-  </si>
-  <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>MILE</t>
-  </si>
-  <si>
-    <t>MILLIMETER</t>
-  </si>
-  <si>
-    <t>YARD</t>
-  </si>
-  <si>
-    <t>GIGAWATT</t>
-  </si>
-  <si>
-    <t>KILOWATT</t>
-  </si>
-  <si>
-    <t>MEGAWATT</t>
-  </si>
-  <si>
-    <t>TERAWATT</t>
-  </si>
-  <si>
-    <t>WATT</t>
-  </si>
-  <si>
-    <t>FOOT_PER_SECOND</t>
-  </si>
-  <si>
-    <t>FOOT_PER_HOUR</t>
-  </si>
-  <si>
-    <t>KILOMETER_PER_HOUR</t>
-  </si>
-  <si>
-    <t>METER_PER_HOUR</t>
-  </si>
-  <si>
-    <t>METER_PER_MINUTE</t>
-  </si>
-  <si>
-    <t>METER_PER_SECOND</t>
-  </si>
-  <si>
-    <t>MILE_PER_HOUR</t>
-  </si>
-  <si>
-    <t>YARD_PER_HOUR</t>
-  </si>
-  <si>
-    <t>CELSIUS</t>
-  </si>
-  <si>
-    <t>FAHRENHEIT</t>
-  </si>
-  <si>
-    <t>KELVIN</t>
-  </si>
-  <si>
-    <t>RANKINE</t>
-  </si>
-  <si>
-    <t>REAUMUR</t>
-  </si>
-  <si>
-    <t>BARREL</t>
-  </si>
-  <si>
-    <t>CENTILITER</t>
-  </si>
-  <si>
-    <t>CUBIC_CENTIMETER</t>
-  </si>
-  <si>
-    <t>CUBIC_DECIMETER</t>
-  </si>
-  <si>
-    <t>CUBIC_FOOT</t>
-  </si>
-  <si>
-    <t>CUBIC_INCH</t>
-  </si>
-  <si>
-    <t>CUBIC_METER</t>
-  </si>
-  <si>
-    <t>CUBIC_MILLIMETER</t>
-  </si>
-  <si>
-    <t>CUBIC_YARD</t>
-  </si>
-  <si>
-    <t>DECILITER</t>
-  </si>
-  <si>
-    <t>GALLON</t>
-  </si>
-  <si>
-    <t>LITER</t>
-  </si>
-  <si>
-    <t>MILLILITER</t>
-  </si>
-  <si>
-    <t>OUNCE</t>
-  </si>
-  <si>
-    <t>PINT</t>
-  </si>
-  <si>
-    <t>DENIER</t>
-  </si>
-  <si>
-    <t>GRAIN</t>
-  </si>
-  <si>
-    <t>GRAM</t>
-  </si>
-  <si>
-    <t>KILOGRAM</t>
-  </si>
-  <si>
-    <t>LIVRE</t>
-  </si>
-  <si>
-    <t>MARC</t>
-  </si>
-  <si>
-    <t>MILLIGRAM</t>
-  </si>
-  <si>
-    <t>ONCE</t>
-  </si>
-  <si>
-    <t>POUND</t>
-  </si>
-  <si>
-    <t>TON</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="270">
+  <si>
+    <t xml:space="preserve">End user HOWTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not modify the headers of the files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not open this file in Open Office, as it will break the validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not save this file with another extension than xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not modify hidden rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attributes tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The attributes tab can be used to define the properties of attributes which are not linked to families, or which are shared by families.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab can be duplicated to shorten the list. All attributes tab titles should start with "attributes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family tabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The family tab contains all information for a family : code, labels, attributes and completion rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To create a new family, simply duplicate the tab. All family tabs titles must start with "family"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If an attribute is present in multiple families, only fill the blue and pink columns (attribute properties and translations) once </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To add completion for other channels, simply add columns on the right of the table. The label should be the code of the channel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all informations for attribute groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains the list of options for select attributes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab can be duplicated to divide the contents by attribute. All options tab titles should start with "options"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all information about channels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After editing this tab, you might have to update your family tabs so they use the right family codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all information about categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab can be duplicated to divide its content between trees. All category tabs should start with "categories"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all information about association types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all information about group types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrator HOWTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All tabs contain a hidden row with the codes of the properties. If you add some columns, do not forget to update them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The codes for label translations are always of the form "label-&lt;locale&gt;". For example, the french label has the code "label-fr_FR"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common and unaffected attribute properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is unique*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is localizable*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific to locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is scopable*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Useable as grid filter*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation regexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimals allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default metric  unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max file size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowed extensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum input length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label-en_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">localizable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">available_locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scopable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useable_as_grid_filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation_rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation_regexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wysiwyg_enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimals_allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metric_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_metric_unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_file_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allowed_extensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum_input length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completeness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use as label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use_as_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel currencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent category code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group type properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association type properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association type code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X_SELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross sell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPSELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upsell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSTITUTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute type code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute type label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_textarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_multiselect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_simpleselect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_price_collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARPENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTIARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HECTARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_CENTIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_DECIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_DEKAMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_FOOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_FURLONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_HECTOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_KILOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_METER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_MIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_MILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_MILLIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_YARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOBYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGABYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGABYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERABYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGAHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGAHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERAHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEKAMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURLONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HECTOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGAWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGAWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERAWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOT_PER_SECOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOT_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOMETER_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER_PER_MINUTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER_PER_SECOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILE_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YARD_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELSIUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAHRENHEIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KELVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANKINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REAUMUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARREL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTILITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_CENTIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_DECIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_FOOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_METER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_MILLIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_YARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECILITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLILITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUNCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIVRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLIGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TON</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1085,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1418,9 +1421,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>927720</xdr:colOff>
+      <xdr:colOff>927360</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1430,7 +1433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="8466480" cy="9531360"/>
+          <a:ext cx="8342280" cy="9531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1463,9 +1466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>927720</xdr:colOff>
+      <xdr:colOff>927360</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1475,7 +1478,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="8466480" cy="9531360"/>
+          <a:ext cx="8342280" cy="9531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1513,9 +1516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>79920</xdr:colOff>
+      <xdr:colOff>79560</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1525,7 +1528,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6047280" cy="10201680"/>
+          <a:ext cx="5951520" cy="10201320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1558,9 +1561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>79920</xdr:colOff>
+      <xdr:colOff>79560</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1570,7 +1573,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6047280" cy="10201680"/>
+          <a:ext cx="5951520" cy="10201320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1608,9 +1611,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>927720</xdr:colOff>
+      <xdr:colOff>927360</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1620,7 +1623,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="9619200" cy="9531360"/>
+          <a:ext cx="9475920" cy="9531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1653,9 +1656,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>927720</xdr:colOff>
+      <xdr:colOff>927360</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1665,7 +1668,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="9619200" cy="9531360"/>
+          <a:ext cx="9475920" cy="9531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1700,13 +1703,13 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="3:3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,19 +1897,19 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="3:3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="48.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="28" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>33</v>
@@ -1914,7 +1917,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>36</v>
@@ -1930,34 +1933,34 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1985,12 +1988,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="1" sqref="3:3 D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2009,18 +2012,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2042,22 +2045,22 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="3:3 B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,7 +2073,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>87</v>
@@ -2078,7 +2081,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>91</v>
@@ -2086,82 +2089,82 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2183,22 +2186,22 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="3:3 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2211,98 +2214,98 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2324,19 +2327,19 @@
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -2345,703 +2348,703 @@
         <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3063,41 +3066,41 @@
   <dimension ref="A1:AV8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="3:3 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3480,47 +3483,47 @@
   <dimension ref="A1:AX7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3899,48 +3902,48 @@
   </sheetPr>
   <dimension ref="A1:AX6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="3:3 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4307,15 +4310,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="3:3 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.0663265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4393,14 +4395,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="3:3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4457,18 +4458,17 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="1" sqref="3:3 F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1016" min="6" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4561,14 +4561,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="3:3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4638,15 +4637,15 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4663,17 +4662,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -4681,7 +4680,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>

--- a/src/Resources/fixtures/minimal_EE/init.xlsx
+++ b/src/Resources/fixtures/minimal_EE/init.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
     <definedName function="false" hidden="false" name="metric_units" vbProcedure="false">metric_units!$B$3:$B$89</definedName>
     <definedName function="false" hidden="false" name="validation_choices" vbProcedure="false">choices!$B$1:$B$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">attributes!$B$6:$AU$9</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'family main'!$C$5:$AW$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'family main'!$C$5:$Y$8</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">attribute_groups!$A$4:$C$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -111,54 +111,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Insert the name of the locales, separated by ",".
-For example : "en_US, fr_FR"
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Insert the allowed extensions, separated by a comma.
-For example : 
-jpg, jpeg, png</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Determines how many characters should be typed for select attributes before an option is presented.
-This should be used for attributes which have a large number of options.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA3" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,38 +135,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="Y4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Insert the allowed extensions, separated by a comma.
-For example : 
-jpg, jpeg, png</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Z4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Determines how many characters should be typed for select attributes before an option is presented.
-This should be used for attributes which have a large number of options.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA3" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="400">
   <si>
     <t xml:space="preserve">End user HOWTO</t>
   </si>
@@ -1815,9 +1737,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>326880</xdr:colOff>
+      <xdr:colOff>326520</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1827,7 +1749,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6160680" cy="9530640"/>
+          <a:ext cx="6160320" cy="9530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1860,9 +1782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>326880</xdr:colOff>
+      <xdr:colOff>326520</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1872,7 +1794,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6160680" cy="9530640"/>
+          <a:ext cx="6160320" cy="9530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1910,9 +1832,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>79200</xdr:colOff>
+      <xdr:colOff>78840</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1922,7 +1844,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="5865480" cy="10200960"/>
+          <a:ext cx="5865120" cy="10200600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1955,9 +1877,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>79200</xdr:colOff>
+      <xdr:colOff>78840</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1967,7 +1889,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="5865480" cy="10200960"/>
+          <a:ext cx="5865120" cy="10200600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2005,9 +1927,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>326880</xdr:colOff>
+      <xdr:colOff>326520</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2017,7 +1939,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6760800" cy="9530640"/>
+          <a:ext cx="6760440" cy="9530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2050,9 +1972,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>326880</xdr:colOff>
+      <xdr:colOff>326520</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2062,7 +1984,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6760800" cy="9530640"/>
+          <a:ext cx="6760440" cy="9530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2096,13 +2018,14 @@
   </sheetPr>
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.86224489795918"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,7 +2197,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2289,14 +2212,15 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="47.1122448979592"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="24.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="47.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" s="28" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2364,7 +2288,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2379,13 +2303,13 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,7 +2355,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2446,15 +2370,15 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,7 +2416,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2507,17 +2431,21 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,7 +2527,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2614,14 +2542,15 @@
   </sheetPr>
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3443,7 +3372,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3458,11 +3387,14 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -3497,7 +3429,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3512,15 +3444,15 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,7 +3570,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3653,15 +3585,15 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,7 +3711,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3794,15 +3726,15 @@
   </sheetPr>
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4450,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4533,39 +4465,42 @@
   </sheetPr>
   <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="9.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="26" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="7" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="8" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="47" style="7" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="49" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4931,7 +4866,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4945,67 +4880,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AX7"/>
+  <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="13.5"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="7" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="8" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="7" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="7" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="997" min="27" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1000" min="998" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1001" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="0"/>
+      <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -5014,57 +4925,47 @@
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="AA2" s="0"/>
-      <c r="AU2" s="0"/>
-      <c r="AV2" s="0"/>
-      <c r="AW2" s="0"/>
-      <c r="AX2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
     </row>
     <row r="3" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="20" t="s">
+      <c r="C3" s="20" t="s">
         <v>96</v>
       </c>
+      <c r="ALM3" s="0"/>
+      <c r="ALN3" s="0"/>
+      <c r="ALO3" s="0"/>
+      <c r="ALP3" s="0"/>
+      <c r="ALQ3" s="0"/>
+      <c r="ALR3" s="0"/>
+      <c r="ALS3" s="0"/>
+      <c r="ALT3" s="0"/>
+      <c r="ALU3" s="0"/>
+      <c r="ALV3" s="0"/>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
@@ -5073,79 +4974,7 @@
       <c r="B4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA4" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5156,92 +4985,25 @@
       <c r="B5" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z5" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA5" s="22"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="C6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
@@ -5251,107 +5013,32 @@
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>89</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="AA7" s="6" t="n">
+      <c r="C7" s="6" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D3:Z3"/>
-  </mergeCells>
-  <dataValidations count="13">
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T6" type="decimal">
-      <formula1>$P$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N6" type="none">
-      <formula1>ouinon</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B7 G6:H7 J6:K7 O6:O7 R6:S7" type="list">
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B7" type="list">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L6:L7" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M6:M7" type="list">
-      <formula1>validation_choices</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X6:X7 Z6:Z7" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AA7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C7" type="list">
       <formula1>boolean_choices</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P6:Q7" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V3:V7" type="list">
-      <formula1>metric_types</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W3:W7" type="list">
-      <formula1>metric_units</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D7" type="list">
-      <formula1>attribute_types</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E7" type="list">
-      <formula1>attribute_groups</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5365,67 +5052,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AX6"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="13.5"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="7" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="8" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="7" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="7" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="997" min="27" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1000" min="998" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1001" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -5434,57 +5097,47 @@
       <c r="B2" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="AA2" s="0"/>
-      <c r="AU2" s="0"/>
-      <c r="AV2" s="0"/>
-      <c r="AW2" s="0"/>
-      <c r="AX2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
     </row>
     <row r="3" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="20" t="s">
+      <c r="C3" s="20" t="s">
         <v>96</v>
       </c>
+      <c r="ALM3" s="0"/>
+      <c r="ALN3" s="0"/>
+      <c r="ALO3" s="0"/>
+      <c r="ALP3" s="0"/>
+      <c r="ALQ3" s="0"/>
+      <c r="ALR3" s="0"/>
+      <c r="ALS3" s="0"/>
+      <c r="ALT3" s="0"/>
+      <c r="ALU3" s="0"/>
+      <c r="ALV3" s="0"/>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
@@ -5493,79 +5146,7 @@
       <c r="B4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA4" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5576,92 +5157,25 @@
       <c r="B5" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z5" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA5" s="22"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="C6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
@@ -5671,94 +5185,21 @@
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D3:Z3"/>
-  </mergeCells>
-  <dataValidations count="13">
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T6" type="decimal">
-      <formula1>$P$7</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N6" type="none">
-      <formula1>ouinon</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6 G6:H6 J6:K6 O6 R6:S6" type="list">
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6" type="list">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L6" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M6" type="list">
-      <formula1>validation_choices</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X6 Z6" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6" type="list">
       <formula1>boolean_choices</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P6:Q6" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V3:V6" type="list">
-      <formula1>metric_types</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W3:W6" type="list">
-      <formula1>metric_units</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D6" type="list">
-      <formula1>attribute_types</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E6" type="list">
-      <formula1>attribute_groups</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5774,16 +5215,16 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5845,7 +5286,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5860,15 +5301,15 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5908,7 +5349,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5924,19 +5365,19 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1016" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="6" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6011,7 +5452,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6028,15 +5469,15 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6090,7 +5531,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6106,14 +5547,15 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6158,7 +5600,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/Resources/fixtures/minimal_EE/init.xlsx
+++ b/src/Resources/fixtures/minimal_EE/init.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
     <definedName function="false" hidden="false" name="metric_types" vbProcedure="false">metric_types!$B$3:$B$11</definedName>
     <definedName function="false" hidden="false" name="metric_units" vbProcedure="false">metric_units!$B$3:$B$89</definedName>
     <definedName function="false" hidden="false" name="validation_choices" vbProcedure="false">choices!$B$1:$B$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">attributes!$B$6:$AU$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">attributes!$B$6:$AV$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'family main'!$C$5:$Y$8</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">attribute_groups!$A$4:$C$4</definedName>
   </definedNames>
@@ -54,7 +54,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X5" authorId="0">
+    <comment ref="Y5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y5" authorId="0">
+    <comment ref="Z5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="408">
   <si>
     <t xml:space="preserve">End user HOWTO</t>
   </si>
@@ -307,6 +307,9 @@
     <t xml:space="preserve">en_US</t>
   </si>
   <si>
+    <t xml:space="preserve">fr_FR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attribute type</t>
   </si>
   <si>
@@ -382,6 +385,9 @@
     <t xml:space="preserve">label-en_US</t>
   </si>
   <si>
+    <t xml:space="preserve">label-fr_FR</t>
+  </si>
+  <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
@@ -469,6 +475,9 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Nom</t>
+  </si>
+  <si>
     <t xml:space="preserve">Text</t>
   </si>
   <si>
@@ -484,6 +493,9 @@
     <t xml:space="preserve">Main</t>
   </si>
   <si>
+    <t xml:space="preserve">Catégorie principale</t>
+  </si>
+  <si>
     <t xml:space="preserve">Completeness</t>
   </si>
   <si>
@@ -499,6 +511,9 @@
     <t xml:space="preserve">Second family</t>
   </si>
   <si>
+    <t xml:space="preserve">Deuxième famille</t>
+  </si>
+  <si>
     <t xml:space="preserve">Group properties</t>
   </si>
   <si>
@@ -517,6 +532,9 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
+    <t xml:space="preserve">Autres</t>
+  </si>
+  <si>
     <t xml:space="preserve">Option properties</t>
   </si>
   <si>
@@ -556,160 +574,166 @@
     <t xml:space="preserve">tree</t>
   </si>
   <si>
+    <t xml:space="preserve">en_US,fr_FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD,EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent category code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group type properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association type properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association type code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X_SELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross sell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPSELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upsell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSTITUTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE_ADMINISTRATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE_CATALOG_MANAGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalog manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE_USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalog_locale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_locale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalog_scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activated</t>
+  </si>
+  <si>
     <t xml:space="preserve">USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent category code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group type properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_variant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARIANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELATED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Association type properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Association type code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X_SELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cross sell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPSELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upsell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBSTITUTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substitution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redactor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redactor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE_ADMINISTRATOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE_CATALOG_MANAGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catalog manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLE_USER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">first_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catalog_locale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_locale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catalog_scope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activated</t>
   </si>
   <si>
     <t xml:space="preserve">EUR</t>
@@ -1533,7 +1557,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1642,6 +1666,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1737,9 +1773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>326520</xdr:colOff>
+      <xdr:colOff>326160</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1749,7 +1785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6160320" cy="9530280"/>
+          <a:ext cx="6083640" cy="9529920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1782,9 +1818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>326520</xdr:colOff>
+      <xdr:colOff>326160</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1794,7 +1830,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6160320" cy="9530280"/>
+          <a:ext cx="6083640" cy="9529920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1832,9 +1868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>78840</xdr:colOff>
+      <xdr:colOff>78480</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1844,7 +1880,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="5865120" cy="10200600"/>
+          <a:ext cx="5798160" cy="10200240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1877,9 +1913,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>78840</xdr:colOff>
+      <xdr:colOff>78480</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:rowOff>140760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1889,7 +1925,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="5865120" cy="10200600"/>
+          <a:ext cx="5798160" cy="10200240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1929,7 +1965,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>326520</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1939,7 +1975,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6760440" cy="9530280"/>
+          <a:ext cx="11122200" cy="9829800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1974,7 +2010,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>326520</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1984,7 +2020,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6760440" cy="9530280"/>
+          <a:ext cx="11122200" cy="9829800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,14 +2054,14 @@
   </sheetPr>
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,7 +2233,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2212,20 +2248,20 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="24.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="47.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="31" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>33</v>
@@ -2233,7 +2269,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>36</v>
@@ -2241,42 +2277,42 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>133</v>
+        <v>139</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>135</v>
+        <v>141</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2324,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2303,59 +2339,56 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.23"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2370,53 +2403,52 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2431,76 +2463,76 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>36</v>
@@ -2509,16 +2541,16 @@
         <v>36</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
@@ -2527,7 +2559,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2542,28 +2574,27 @@
   </sheetPr>
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -2571,7 +2602,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -2579,7 +2610,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -2587,7 +2618,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2595,7 +2626,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2603,7 +2634,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2611,7 +2642,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2619,7 +2650,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2627,7 +2658,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2635,7 +2666,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2643,7 +2674,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2651,7 +2682,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2659,7 +2690,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2667,7 +2698,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -2675,7 +2706,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -2683,7 +2714,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -2691,7 +2722,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -2699,7 +2730,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -2707,7 +2738,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -2715,7 +2746,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -2723,7 +2754,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -2731,7 +2762,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -2739,7 +2770,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -2747,7 +2778,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -2755,7 +2786,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -2763,7 +2794,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -2771,7 +2802,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -2779,7 +2810,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -2787,7 +2818,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -2795,7 +2826,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -2803,7 +2834,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -2811,7 +2842,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -2819,7 +2850,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -2827,7 +2858,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -2835,7 +2866,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -2843,7 +2874,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -2851,7 +2882,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -2859,7 +2890,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -2867,7 +2898,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -2875,7 +2906,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -2883,7 +2914,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -2891,7 +2922,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -2899,7 +2930,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -2907,7 +2938,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -2915,7 +2946,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -2923,7 +2954,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -2931,7 +2962,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -2939,7 +2970,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -2947,7 +2978,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -2955,7 +2986,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
@@ -2963,7 +2994,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -2971,7 +3002,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
@@ -2979,7 +3010,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0</v>
@@ -2987,7 +3018,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0</v>
@@ -2995,7 +3026,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0</v>
@@ -3003,7 +3034,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
@@ -3011,7 +3042,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
@@ -3019,7 +3050,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0</v>
@@ -3027,7 +3058,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0</v>
@@ -3035,7 +3066,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0</v>
@@ -3043,7 +3074,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0</v>
@@ -3051,7 +3082,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0</v>
@@ -3059,7 +3090,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0</v>
@@ -3067,7 +3098,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0</v>
@@ -3075,7 +3106,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0</v>
@@ -3083,7 +3114,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0</v>
@@ -3091,7 +3122,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0</v>
@@ -3099,7 +3130,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0</v>
@@ -3107,7 +3138,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0</v>
@@ -3115,7 +3146,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0</v>
@@ -3123,7 +3154,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0</v>
@@ -3131,7 +3162,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>0</v>
@@ -3139,7 +3170,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>0</v>
@@ -3147,7 +3178,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>0</v>
@@ -3155,7 +3186,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>0</v>
@@ -3163,7 +3194,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0</v>
@@ -3171,7 +3202,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>0</v>
@@ -3179,7 +3210,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>0</v>
@@ -3187,7 +3218,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>0</v>
@@ -3195,7 +3226,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>0</v>
@@ -3203,7 +3234,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>0</v>
@@ -3211,7 +3242,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>0</v>
@@ -3219,7 +3250,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>0</v>
@@ -3227,7 +3258,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0</v>
@@ -3235,7 +3266,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>0</v>
@@ -3243,7 +3274,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>0</v>
@@ -3251,7 +3282,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>0</v>
@@ -3259,7 +3290,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>0</v>
@@ -3267,7 +3298,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>0</v>
@@ -3275,7 +3306,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>0</v>
@@ -3283,7 +3314,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0</v>
@@ -3291,7 +3322,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0</v>
@@ -3299,7 +3330,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>0</v>
@@ -3307,7 +3338,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>0</v>
@@ -3315,7 +3346,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>0</v>
@@ -3323,7 +3354,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>0</v>
@@ -3331,7 +3362,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0</v>
@@ -3339,7 +3370,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>0</v>
@@ -3347,7 +3378,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0</v>
@@ -3355,7 +3386,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
@@ -3363,7 +3394,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>0</v>
@@ -3372,7 +3403,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3387,13 +3418,13 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3412,24 +3443,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3444,133 +3475,132 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3585,133 +3615,132 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3726,731 +3755,730 @@
   </sheetPr>
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.23"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4463,85 +4491,96 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AV8"/>
+  <dimension ref="A1:AW8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="9.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="10.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="26" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="7" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="8" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="47" style="7" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="49" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="45" min="27" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="7" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="8" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="49" min="48" style="7" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="50" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="0"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
-      <c r="I1" s="0"/>
+      <c r="H1" s="0"/>
       <c r="J1" s="0"/>
-      <c r="AS1" s="0"/>
+      <c r="K1" s="0"/>
       <c r="AT1" s="0"/>
       <c r="AU1" s="0"/>
       <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
-      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="0"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
-      <c r="I2" s="0"/>
+      <c r="H2" s="0"/>
       <c r="J2" s="0"/>
-      <c r="AS2" s="0"/>
+      <c r="K2" s="0"/>
       <c r="AT2" s="0"/>
       <c r="AU2" s="0"/>
       <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="AT3" s="0"/>
+      <c r="AU3" s="0"/>
+      <c r="AV3" s="0"/>
+      <c r="AW3" s="0"/>
     </row>
     <row r="4" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -4563,6 +4602,7 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
@@ -4571,7 +4611,7 @@
       <c r="B5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -4640,115 +4680,123 @@
       <c r="Y5" s="13" t="s">
         <v>59</v>
       </c>
+      <c r="Z5" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="16" t="s">
         <v>62</v>
       </c>
+      <c r="C6" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="D6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="17" t="s">
         <v>64</v>
       </c>
+      <c r="E6" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="F6" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>68</v>
       </c>
+      <c r="I6" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="J6" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="16" t="s">
         <v>70</v>
       </c>
+      <c r="K6" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="L6" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="n">
+      <c r="G7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="H7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19"/>
       <c r="J7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
@@ -4780,93 +4828,97 @@
       <c r="AP7" s="19"/>
       <c r="AQ7" s="19"/>
       <c r="AR7" s="19"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AS7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="6" t="n">
+      <c r="F8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="6" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C4:Y4"/>
+    <mergeCell ref="D4:Z4"/>
   </mergeCells>
   <dataValidations count="12">
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O7:P8" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P7:Q8" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:W8 Y7:Y8" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X7:X8 Z7:Z8" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L7:L8" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M7:M8" type="list">
       <formula1>validation_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K7:K8" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L7:L8" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F7:G8 I7:J8 N7:N8 Q7:R8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G7:H8 J7:K8 O7:O8 R7:S8" type="list">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M7" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N7" type="none">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7" type="whole">
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S7" type="decimal">
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T7" type="decimal">
       <formula1>$O$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C8" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D8" type="list">
       <formula1>attribute_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D8" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E8" type="list">
       <formula1>attribute_groups</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U7:U8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V7:V8" type="list">
       <formula1>metric_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V7:V8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W7:W8" type="list">
       <formula1>metric_units</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4880,32 +4932,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ7"/>
+  <dimension ref="1:7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="7" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="8" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="7" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="7" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="997" min="27" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1000" min="998" style="0" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1001" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.23"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.6683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7448979591837"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4913,6 +4965,9 @@
       <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="W1" s="0"/>
       <c r="X1" s="0"/>
       <c r="Y1" s="0"/>
@@ -4920,16 +4975,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
@@ -4940,7 +4998,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="ALM3" s="0"/>
       <c r="ALN3" s="0"/>
@@ -4972,24 +5030,24 @@
         <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="18" t="n">
         <v>1</v>
@@ -5016,7 +5074,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -5038,7 +5096,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5052,32 +5110,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="1:6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="0" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="7" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="8" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="7" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="7" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="997" min="27" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1000" min="998" style="0" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1001" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.23"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4489795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5085,6 +5143,9 @@
       <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="W1" s="0"/>
       <c r="X1" s="0"/>
       <c r="Y1" s="0"/>
@@ -5092,16 +5153,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
@@ -5112,7 +5176,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="ALM3" s="0"/>
       <c r="ALN3" s="0"/>
@@ -5144,24 +5208,24 @@
         <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="18" t="n">
         <v>1</v>
@@ -5199,7 +5263,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5213,80 +5277,95 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="22.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D2" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="19" t="n">
+      <c r="A4" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="C4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
+      <c r="C5" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5301,20 +5380,20 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="22.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
@@ -5326,7 +5405,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>36</v>
@@ -5334,13 +5413,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -5349,7 +5428,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5365,24 +5444,23 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="6" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="8.23"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1016" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -5391,53 +5469,53 @@
     </row>
     <row r="2" customFormat="false" ht="49.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="9.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5452,7 +5530,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5467,56 +5545,68 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="22.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5531,7 +5621,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5547,34 +5637,34 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B1" s="24"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -5582,7 +5672,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5600,7 +5690,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/Resources/fixtures/minimal_EE/init.xlsx
+++ b/src/Resources/fixtures/minimal_EE/init.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="410">
   <si>
     <t xml:space="preserve">End user HOWTO</t>
   </si>
@@ -1779,9 +1779,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1791,7 +1791,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9933840" cy="9532080"/>
+          <a:ext cx="9828720" cy="9531720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1824,9 +1824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1836,7 +1836,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9933840" cy="9532080"/>
+          <a:ext cx="9828720" cy="9531720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1869,9 +1869,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1881,7 +1881,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9933840" cy="9532080"/>
+          <a:ext cx="9828720" cy="9531720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1919,9 +1919,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>275760</xdr:colOff>
+      <xdr:colOff>275400</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1931,7 +1931,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9924480" cy="9532080"/>
+          <a:ext cx="9800280" cy="9531720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1969,9 +1969,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>456840</xdr:colOff>
+      <xdr:colOff>456480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1981,7 +1981,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9924480" cy="9532080"/>
+          <a:ext cx="9810000" cy="9531720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,8 +2018,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>325800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>325440</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
@@ -2031,7 +2031,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6007320" cy="9529560"/>
+          <a:ext cx="7362000" cy="9868680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2040,7 +2040,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2060,8 +2060,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>325800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>325440</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
@@ -2073,7 +2073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6007320" cy="9529560"/>
+          <a:ext cx="7362000" cy="9868680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2082,7 +2082,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2108,9 +2108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>78480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2120,7 +2120,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6826680" cy="10387440"/>
+          <a:ext cx="6759720" cy="10387080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2129,7 +2129,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2150,9 +2150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>78480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2162,7 +2162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6826680" cy="10387440"/>
+          <a:ext cx="6759720" cy="10387080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2171,7 +2171,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2192,9 +2192,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104400</xdr:colOff>
+      <xdr:colOff>104040</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2204,7 +2204,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11000880" cy="9732240"/>
+          <a:ext cx="10866960" cy="9731880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2237,9 +2237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104400</xdr:colOff>
+      <xdr:colOff>104040</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2249,7 +2249,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="11000880" cy="9732240"/>
+          <a:ext cx="10866960" cy="9731880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2287,9 +2287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>326160</xdr:colOff>
+      <xdr:colOff>325800</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2299,7 +2299,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="10979640" cy="9829800"/>
+          <a:ext cx="10836360" cy="9829440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2308,7 +2308,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2329,9 +2329,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>326160</xdr:colOff>
+      <xdr:colOff>325800</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2341,7 +2341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="10979640" cy="9829800"/>
+          <a:ext cx="10836360" cy="9829440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2350,7 +2350,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2378,8 +2378,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.45408163265306"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,17 +2563,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="46.030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="45.4897959183674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="21.3010204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2584,21 +2583,28 @@
       <c r="B1" s="25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>62</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2608,34 +2614,38 @@
       <c r="B4" s="32" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="32"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="31"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
         <v>144</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="31"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
         <v>146</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>147</v>
       </c>
+      <c r="C7" s="31"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4" type="none">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:C4" type="none">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2663,7 +2673,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,25 +2737,25 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>158</v>
       </c>
@@ -2785,21 +2797,16 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,15 +2903,15 @@
   </sheetPr>
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R41" activeCellId="0" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.484693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.16326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,9 +3753,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -3804,9 +3808,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,9 +3949,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,9 +4090,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,36 +4829,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="45" min="27" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="7" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="8" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="49" min="48" style="7" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="50" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="7" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="8" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="49" min="48" style="7" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5256,25 +5257,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5412,25 +5412,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5557,11 +5556,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5649,17 +5647,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO2" activeCellId="0" sqref="AO2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.515306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5670,8 +5669,9 @@
       <c r="C1" s="25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
@@ -5681,8 +5681,11 @@
       <c r="C2" s="26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
         <v>115</v>
       </c>
@@ -5691,6 +5694,9 @@
       </c>
       <c r="C3" s="26" t="s">
         <v>62</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5715,20 +5721,19 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1017" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5834,11 +5839,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5919,14 +5923,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/src/Resources/fixtures/minimal_EE/init.xlsx
+++ b/src/Resources/fixtures/minimal_EE/init.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="603">
   <si>
     <t xml:space="preserve">End user HOWTO</t>
   </si>
@@ -754,9 +754,24 @@
     <t xml:space="preserve">AFA</t>
   </si>
   <si>
+    <t xml:space="preserve">AFN</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALK</t>
   </si>
   <si>
+    <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOA</t>
+  </si>
+  <si>
     <t xml:space="preserve">AOK</t>
   </si>
   <si>
@@ -766,27 +781,51 @@
     <t xml:space="preserve">AOR</t>
   </si>
   <si>
+    <t xml:space="preserve">ARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARM</t>
   </si>
   <si>
     <t xml:space="preserve">ARP</t>
   </si>
   <si>
-    <t xml:space="preserve">ARL</t>
+    <t xml:space="preserve">ARS</t>
   </si>
   <si>
     <t xml:space="preserve">ATS</t>
   </si>
   <si>
+    <t xml:space="preserve">AUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AWG</t>
+  </si>
+  <si>
     <t xml:space="preserve">AZM</t>
   </si>
   <si>
+    <t xml:space="preserve">AZN</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAD</t>
   </si>
   <si>
+    <t xml:space="preserve">BAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAN</t>
   </si>
   <si>
+    <t xml:space="preserve">BBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDT</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEC</t>
   </si>
   <si>
@@ -802,15 +841,36 @@
     <t xml:space="preserve">BGM</t>
   </si>
   <si>
+    <t xml:space="preserve">BGN</t>
+  </si>
+  <si>
     <t xml:space="preserve">BGO</t>
   </si>
   <si>
+    <t xml:space="preserve">BHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOB</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOL</t>
   </si>
   <si>
     <t xml:space="preserve">BOP</t>
   </si>
   <si>
+    <t xml:space="preserve">BOV</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRB</t>
   </si>
   <si>
@@ -820,36 +880,132 @@
     <t xml:space="preserve">BRE</t>
   </si>
   <si>
+    <t xml:space="preserve">BRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRN</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRR</t>
   </si>
   <si>
-    <t xml:space="preserve">BRN</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRZ</t>
   </si>
   <si>
+    <t xml:space="preserve">BSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BWP</t>
+  </si>
+  <si>
     <t xml:space="preserve">BYB</t>
   </si>
   <si>
+    <t xml:space="preserve">BYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDF</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHE</t>
   </si>
   <si>
+    <t xml:space="preserve">CHF</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHW</t>
   </si>
   <si>
+    <t xml:space="preserve">CLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRC</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSD</t>
   </si>
   <si>
     <t xml:space="preserve">CSK</t>
   </si>
   <si>
+    <t xml:space="preserve">CUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDM</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEM</t>
   </si>
   <si>
+    <t xml:space="preserve">DJF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DZD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECV</t>
+  </si>
+  <si>
     <t xml:space="preserve">EEK</t>
   </si>
   <si>
+    <t xml:space="preserve">EGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERN</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESA</t>
   </si>
   <si>
@@ -859,120 +1015,516 @@
     <t xml:space="preserve">ESP</t>
   </si>
   <si>
+    <t xml:space="preserve">ETB</t>
+  </si>
+  <si>
     <t xml:space="preserve">FIM</t>
   </si>
   <si>
+    <t xml:space="preserve">FJD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FKP</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRF</t>
   </si>
   <si>
+    <t xml:space="preserve">GBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">GHC</t>
   </si>
   <si>
-    <t xml:space="preserve">GBP</t>
+    <t xml:space="preserve">GHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GQE</t>
   </si>
   <si>
     <t xml:space="preserve">GRD</t>
   </si>
   <si>
+    <t xml:space="preserve">GTQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWP</t>
+  </si>
+  <si>
     <t xml:space="preserve">GYD</t>
   </si>
   <si>
+    <t xml:space="preserve">HKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDR</t>
+  </si>
+  <si>
     <t xml:space="preserve">IEP</t>
   </si>
   <si>
+    <t xml:space="preserve">ILP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRR</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISJ</t>
   </si>
   <si>
-    <t xml:space="preserve">ILR</t>
+    <t xml:space="preserve">ISK</t>
   </si>
   <si>
     <t xml:space="preserve">ITL</t>
   </si>
   <si>
+    <t xml:space="preserve">JMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPW</t>
+  </si>
+  <si>
     <t xml:space="preserve">KRH</t>
   </si>
   <si>
     <t xml:space="preserve">KRO</t>
   </si>
   <si>
+    <t xml:space="preserve">KRW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KYD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUC</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUF</t>
   </si>
   <si>
+    <t xml:space="preserve">LUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LVL</t>
+  </si>
+  <si>
     <t xml:space="preserve">LVR</t>
   </si>
   <si>
+    <t xml:space="preserve">LYD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MGF</t>
   </si>
   <si>
+    <t xml:space="preserve">MKD</t>
+  </si>
+  <si>
     <t xml:space="preserve">MKN</t>
   </si>
   <si>
+    <t xml:space="preserve">MLF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">MTL</t>
   </si>
   <si>
+    <t xml:space="preserve">MTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXN</t>
+  </si>
+  <si>
     <t xml:space="preserve">MXP</t>
   </si>
   <si>
+    <t xml:space="preserve">MXV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYR</t>
+  </si>
+  <si>
     <t xml:space="preserve">MZE</t>
   </si>
   <si>
     <t xml:space="preserve">MZM</t>
   </si>
   <si>
+    <t xml:space="preserve">MZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGN</t>
+  </si>
+  <si>
     <t xml:space="preserve">NIC</t>
   </si>
   <si>
+    <t xml:space="preserve">NIO</t>
+  </si>
+  <si>
     <t xml:space="preserve">NLG</t>
   </si>
   <si>
+    <t xml:space="preserve">NOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">PES</t>
   </si>
   <si>
+    <t xml:space="preserve">PGK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLN</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLZ</t>
   </si>
   <si>
     <t xml:space="preserve">PTE</t>
   </si>
   <si>
+    <t xml:space="preserve">PYG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHD</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROL</t>
   </si>
   <si>
+    <t xml:space="preserve">RON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RWF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCR</t>
+  </si>
+  <si>
     <t xml:space="preserve">SDD</t>
   </si>
   <si>
+    <t xml:space="preserve">SDG</t>
+  </si>
+  <si>
     <t xml:space="preserve">SDP</t>
   </si>
   <si>
+    <t xml:space="preserve">SEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHP</t>
+  </si>
+  <si>
     <t xml:space="preserve">SIT</t>
   </si>
   <si>
     <t xml:space="preserve">SKK</t>
   </si>
   <si>
+    <t xml:space="preserve">SLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STD</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUR</t>
   </si>
   <si>
+    <t xml:space="preserve">SVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TJS</t>
+  </si>
+  <si>
     <t xml:space="preserve">TMM</t>
   </si>
   <si>
+    <t xml:space="preserve">TMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP</t>
+  </si>
+  <si>
     <t xml:space="preserve">TPE</t>
   </si>
   <si>
     <t xml:space="preserve">TRL</t>
   </si>
   <si>
+    <t xml:space="preserve">TRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAK</t>
+  </si>
+  <si>
     <t xml:space="preserve">UGS</t>
   </si>
   <si>
+    <t xml:space="preserve">UGX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UYI</t>
+  </si>
+  <si>
     <t xml:space="preserve">UYP</t>
   </si>
   <si>
+    <t xml:space="preserve">UYU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UZS</t>
+  </si>
+  <si>
     <t xml:space="preserve">VEB</t>
   </si>
   <si>
+    <t xml:space="preserve">VEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VND</t>
+  </si>
+  <si>
     <t xml:space="preserve">VNN</t>
   </si>
   <si>
+    <t xml:space="preserve">VUV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAF</t>
+  </si>
+  <si>
     <t xml:space="preserve">XAU</t>
   </si>
   <si>
@@ -988,6 +1540,12 @@
     <t xml:space="preserve">XBD</t>
   </si>
   <si>
+    <t xml:space="preserve">XCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDR</t>
+  </si>
+  <si>
     <t xml:space="preserve">XEU</t>
   </si>
   <si>
@@ -997,10 +1555,16 @@
     <t xml:space="preserve">XFU</t>
   </si>
   <si>
+    <t xml:space="preserve">XOF</t>
+  </si>
+  <si>
     <t xml:space="preserve">XPD</t>
   </si>
   <si>
-    <t xml:space="preserve">XDR</t>
+    <t xml:space="preserve">XPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XRE</t>
   </si>
   <si>
     <t xml:space="preserve">XSU</t>
@@ -1012,6 +1576,12 @@
     <t xml:space="preserve">XXX</t>
   </si>
   <si>
+    <t xml:space="preserve">YDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YER</t>
+  </si>
+  <si>
     <t xml:space="preserve">YUD</t>
   </si>
   <si>
@@ -1024,7 +1594,16 @@
     <t xml:space="preserve">YUR</t>
   </si>
   <si>
+    <t xml:space="preserve">ZAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZMW</t>
   </si>
   <si>
     <t xml:space="preserve">ZRN</t>
@@ -1433,7 +2012,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1496,8 +2075,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1526,6 +2112,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9966CC"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6600FF"/>
+        <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
   </fills>
@@ -1563,7 +2155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1696,6 +2288,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1719,7 +2315,7 @@
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF6600FF"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
@@ -1779,9 +2375,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1791,7 +2387,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9828720" cy="9531720"/>
+          <a:ext cx="9685800" cy="9531360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1824,9 +2420,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1836,7 +2432,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9828720" cy="9531720"/>
+          <a:ext cx="9685800" cy="9531360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1869,9 +2465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1881,7 +2477,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9828720" cy="9531720"/>
+          <a:ext cx="9685800" cy="9531360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1919,9 +2515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>275400</xdr:colOff>
+      <xdr:colOff>275040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1931,7 +2527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9800280" cy="9531720"/>
+          <a:ext cx="9676080" cy="9531360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1969,9 +2565,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>456480</xdr:colOff>
+      <xdr:colOff>456120</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1981,7 +2577,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9810000" cy="9531720"/>
+          <a:ext cx="9695160" cy="9531360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2019,9 +2615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
+      <xdr:colOff>325080</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2031,7 +2627,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="7362000" cy="9868680"/>
+          <a:ext cx="7406640" cy="9868320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2061,9 +2657,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
+      <xdr:colOff>325080</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2073,7 +2669,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="7362000" cy="9868680"/>
+          <a:ext cx="7406640" cy="9868320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2108,9 +2704,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2120,7 +2716,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6759720" cy="10387080"/>
+          <a:ext cx="6673680" cy="10386720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2150,9 +2746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2162,7 +2758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6759720" cy="10387080"/>
+          <a:ext cx="6673680" cy="10386720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2192,9 +2788,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2204,7 +2800,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10866960" cy="9731880"/>
+          <a:ext cx="10981080" cy="9731520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2237,9 +2833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2249,7 +2845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10866960" cy="9731880"/>
+          <a:ext cx="10981080" cy="9731520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2287,9 +2883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325800</xdr:colOff>
+      <xdr:colOff>325440</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2299,7 +2895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="10836360" cy="9829440"/>
+          <a:ext cx="10845720" cy="9829080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2329,9 +2925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325800</xdr:colOff>
+      <xdr:colOff>325440</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2341,7 +2937,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="10836360" cy="9829440"/>
+          <a:ext cx="10845720" cy="9829080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2378,7 +2974,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2571,9 +3168,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="21.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2673,9 +3271,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2723,8 +3321,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2742,9 +3340,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,8 +3382,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2803,10 +3401,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2890,8 +3493,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2901,28 +3504,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R41" activeCellId="0" sqref="R41"/>
+      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.484693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.16326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>181</v>
       </c>
@@ -2930,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>182</v>
       </c>
@@ -2938,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>183</v>
       </c>
@@ -2946,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>184</v>
       </c>
@@ -2954,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>185</v>
       </c>
@@ -2962,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>186</v>
       </c>
@@ -2970,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>187</v>
       </c>
@@ -2978,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>188</v>
       </c>
@@ -2986,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>189</v>
       </c>
@@ -2994,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>190</v>
       </c>
@@ -3002,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>191</v>
       </c>
@@ -3010,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>192</v>
       </c>
@@ -3018,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>193</v>
       </c>
@@ -3026,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>194</v>
       </c>
@@ -3034,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>195</v>
       </c>
@@ -3042,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>196</v>
       </c>
@@ -3050,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>197</v>
       </c>
@@ -3058,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>198</v>
       </c>
@@ -3066,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>199</v>
       </c>
@@ -3074,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>200</v>
       </c>
@@ -3082,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>201</v>
       </c>
@@ -3090,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>202</v>
       </c>
@@ -3098,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>203</v>
       </c>
@@ -3106,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>204</v>
       </c>
@@ -3114,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>205</v>
       </c>
@@ -3122,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>206</v>
       </c>
@@ -3130,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>207</v>
       </c>
@@ -3138,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>208</v>
       </c>
@@ -3146,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>209</v>
       </c>
@@ -3154,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>210</v>
       </c>
@@ -3162,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>211</v>
       </c>
@@ -3170,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>212</v>
       </c>
@@ -3178,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>213</v>
       </c>
@@ -3186,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>214</v>
       </c>
@@ -3194,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>215</v>
       </c>
@@ -3202,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>216</v>
       </c>
@@ -3210,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>217</v>
       </c>
@@ -3218,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>218</v>
       </c>
@@ -3226,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>219</v>
       </c>
@@ -3234,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>220</v>
       </c>
@@ -3242,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>221</v>
       </c>
@@ -3250,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>222</v>
       </c>
@@ -3258,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>223</v>
       </c>
@@ -3266,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>224</v>
       </c>
@@ -3274,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>225</v>
       </c>
@@ -3282,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>226</v>
       </c>
@@ -3290,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>227</v>
       </c>
@@ -3298,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>228</v>
       </c>
@@ -3306,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>229</v>
       </c>
@@ -3314,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>230</v>
       </c>
@@ -3322,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>231</v>
       </c>
@@ -3330,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>232</v>
       </c>
@@ -3338,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>233</v>
       </c>
@@ -3346,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>234</v>
       </c>
@@ -3354,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>235</v>
       </c>
@@ -3362,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>236</v>
       </c>
@@ -3370,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>237</v>
       </c>
@@ -3378,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>238</v>
       </c>
@@ -3386,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>239</v>
       </c>
@@ -3394,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>240</v>
       </c>
@@ -3402,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>241</v>
       </c>
@@ -3410,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>242</v>
       </c>
@@ -3418,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>243</v>
       </c>
@@ -3426,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>244</v>
       </c>
@@ -3434,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>245</v>
       </c>
@@ -3442,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>246</v>
       </c>
@@ -3450,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>247</v>
       </c>
@@ -3458,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>248</v>
       </c>
@@ -3466,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>249</v>
       </c>
@@ -3474,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>250</v>
       </c>
@@ -3482,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>251</v>
       </c>
@@ -3490,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>252</v>
       </c>
@@ -3498,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>253</v>
       </c>
@@ -3506,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>254</v>
       </c>
@@ -3514,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>255</v>
       </c>
@@ -3522,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>256</v>
       </c>
@@ -3530,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>257</v>
       </c>
@@ -3538,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>258</v>
       </c>
@@ -3546,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>259</v>
       </c>
@@ -3554,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>260</v>
       </c>
@@ -3562,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>261</v>
       </c>
@@ -3570,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>262</v>
       </c>
@@ -3578,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>263</v>
       </c>
@@ -3586,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>264</v>
       </c>
@@ -3594,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>265</v>
       </c>
@@ -3602,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>266</v>
       </c>
@@ -3610,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>267</v>
       </c>
@@ -3618,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>268</v>
       </c>
@@ -3626,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>269</v>
       </c>
@@ -3634,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>270</v>
       </c>
@@ -3642,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>271</v>
       </c>
@@ -3650,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>272</v>
       </c>
@@ -3658,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>273</v>
       </c>
@@ -3666,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>274</v>
       </c>
@@ -3674,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>275</v>
       </c>
@@ -3682,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>276</v>
       </c>
@@ -3690,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>277</v>
       </c>
@@ -3698,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>278</v>
       </c>
@@ -3706,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>279</v>
       </c>
@@ -3714,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>280</v>
       </c>
@@ -3722,11 +4325,1555 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>281</v>
       </c>
       <c r="B102" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B192" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B202" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B204" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B205" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B208" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B211" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B219" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B220" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B249" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B252" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B253" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B254" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B255" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B256" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B257" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B258" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B259" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B260" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B261" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B262" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B263" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B264" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B265" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B266" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="B267" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B268" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B269" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B270" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B271" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B272" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B273" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B274" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B275" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B276" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B277" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B278" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B279" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B280" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B281" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B282" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B283" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B284" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B285" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B286" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B287" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B288" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B289" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B290" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B291" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B292" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B293" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B294" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B295" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3735,8 +5882,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3753,16 +5900,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>282</v>
+        <v>475</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>283</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3773,15 +5923,15 @@
         <v>167</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>284</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>285</v>
+        <v>478</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>286</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -3808,17 +5958,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>287</v>
+        <v>480</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>288</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,7 +5981,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>289</v>
+        <v>482</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>89</v>
@@ -3839,7 +5989,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>94</v>
@@ -3847,82 +5997,82 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>291</v>
+        <v>484</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>292</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>293</v>
+        <v>486</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>294</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>295</v>
+        <v>488</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>296</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>297</v>
+        <v>490</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>298</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>299</v>
+        <v>492</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>300</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>301</v>
+        <v>494</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>302</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>303</v>
+        <v>496</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>304</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>305</v>
+        <v>498</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>306</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>307</v>
+        <v>500</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>308</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>309</v>
+        <v>502</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>310</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -3930,8 +6080,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3949,17 +6099,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>287</v>
+        <v>480</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>288</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3972,98 +6122,98 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>313</v>
+        <v>506</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>313</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>315</v>
+        <v>508</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>315</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>316</v>
+        <v>509</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>316</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>317</v>
+        <v>510</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>317</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>320</v>
+        <v>513</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>320</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>321</v>
+        <v>514</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>321</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>322</v>
+        <v>515</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>322</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4071,8 +6221,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4090,14 +6240,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>287</v>
+        <v>480</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -4106,703 +6256,703 @@
         <v>64</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>323</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>324</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>325</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>326</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>327</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>328</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>329</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>330</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>331</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>332</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>333</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>334</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>335</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>336</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>337</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>338</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>339</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>340</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>311</v>
+        <v>504</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>341</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>342</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>343</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>344</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>345</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>346</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>312</v>
+        <v>505</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>347</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>313</v>
+        <v>506</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>348</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>313</v>
+        <v>506</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>349</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>313</v>
+        <v>506</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>350</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>313</v>
+        <v>506</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>351</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>313</v>
+        <v>506</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>352</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>353</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>354</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>355</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>356</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>357</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>358</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>359</v>
+        <v>552</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>360</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>361</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>362</v>
+        <v>555</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>363</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>364</v>
+        <v>557</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>365</v>
+        <v>558</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>314</v>
+        <v>507</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>366</v>
+        <v>559</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>315</v>
+        <v>508</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>367</v>
+        <v>560</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>315</v>
+        <v>508</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>368</v>
+        <v>561</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>315</v>
+        <v>508</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>369</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>315</v>
+        <v>508</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>370</v>
+        <v>563</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>315</v>
+        <v>508</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>371</v>
+        <v>564</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>316</v>
+        <v>509</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>372</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>316</v>
+        <v>509</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>373</v>
+        <v>566</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>316</v>
+        <v>509</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>374</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>316</v>
+        <v>509</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>375</v>
+        <v>568</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>316</v>
+        <v>509</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>376</v>
+        <v>569</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>316</v>
+        <v>509</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>377</v>
+        <v>570</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>316</v>
+        <v>509</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>378</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>316</v>
+        <v>509</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>379</v>
+        <v>572</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>317</v>
+        <v>510</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>380</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>317</v>
+        <v>510</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>381</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>317</v>
+        <v>510</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>382</v>
+        <v>575</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>317</v>
+        <v>510</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>383</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>317</v>
+        <v>510</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>384</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>385</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>386</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>387</v>
+        <v>580</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>388</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>389</v>
+        <v>582</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>390</v>
+        <v>583</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>391</v>
+        <v>584</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>392</v>
+        <v>585</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>394</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>395</v>
+        <v>588</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>396</v>
+        <v>589</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>397</v>
+        <v>590</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>398</v>
+        <v>591</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>399</v>
+        <v>592</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>400</v>
+        <v>593</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>401</v>
+        <v>594</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>402</v>
+        <v>595</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>403</v>
+        <v>596</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>404</v>
+        <v>597</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>405</v>
+        <v>598</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>406</v>
+        <v>599</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>407</v>
+        <v>600</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>398</v>
+        <v>591</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>408</v>
+        <v>601</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>319</v>
+        <v>512</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>409</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -4810,8 +6960,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4829,33 +6979,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="7" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="8" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="49" min="48" style="7" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="45" min="27" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="7" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="8" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="49" min="48" style="7" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="50" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5257,24 +7410,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5412,24 +7567,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5556,10 +7713,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5655,10 +7813,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.515306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5727,13 +7886,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1017" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5839,10 +7999,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5928,8 +8089,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/src/Resources/fixtures/minimal_EE/init.xlsx
+++ b/src/Resources/fixtures/minimal_EE/init.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="618">
   <si>
     <t xml:space="preserve">End user HOWTO</t>
   </si>
@@ -481,6 +481,18 @@
     <t xml:space="preserve">Text</t>
   </si>
   <si>
+    <t xml:space="preserve">my_select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélecteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple select</t>
+  </si>
+  <si>
     <t xml:space="preserve">Family code</t>
   </si>
   <si>
@@ -544,6 +556,24 @@
     <t xml:space="preserve">attribute</t>
   </si>
   <si>
+    <t xml:space="preserve">foo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Channel properties</t>
   </si>
   <si>
@@ -598,6 +628,24 @@
     <t xml:space="preserve">Main category</t>
   </si>
   <si>
+    <t xml:space="preserve">main_child_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main first child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premier enfant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_child_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main second child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deuxième enfant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Group type properties</t>
   </si>
   <si>
@@ -1661,9 +1709,6 @@
   </si>
   <si>
     <t xml:space="preserve">pim_catalog_simpleselect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple select</t>
   </si>
   <si>
     <t xml:space="preserve">pim_catalog_price_collection</t>
@@ -2375,7 +2420,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312840</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
@@ -2387,7 +2432,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9685800" cy="9531360"/>
+          <a:ext cx="9978120" cy="10166040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2420,7 +2465,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312840</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
@@ -2432,7 +2477,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9685800" cy="9531360"/>
+          <a:ext cx="9978120" cy="10166040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2465,7 +2510,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312840</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
@@ -2477,7 +2522,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9685800" cy="9531360"/>
+          <a:ext cx="9978120" cy="10166040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2515,9 +2560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>275040</xdr:colOff>
+      <xdr:colOff>274680</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2527,7 +2572,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9676080" cy="9531360"/>
+          <a:ext cx="9513720" cy="9531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2565,9 +2610,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>456120</xdr:colOff>
+      <xdr:colOff>455760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2577,7 +2622,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9695160" cy="9531360"/>
+          <a:ext cx="9542520" cy="9531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2615,9 +2660,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325080</xdr:colOff>
+      <xdr:colOff>324720</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2627,7 +2672,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="7406640" cy="9868320"/>
+          <a:ext cx="7301520" cy="9867960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2657,9 +2702,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325080</xdr:colOff>
+      <xdr:colOff>324720</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2669,7 +2714,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="7406640" cy="9868320"/>
+          <a:ext cx="7301520" cy="9867960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2704,9 +2749,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>77400</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2716,7 +2761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6673680" cy="10386720"/>
+          <a:ext cx="6587640" cy="10386360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2746,9 +2791,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>77400</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2758,7 +2803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6673680" cy="10386720"/>
+          <a:ext cx="6587640" cy="10386360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2788,9 +2833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
+      <xdr:colOff>103320</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2800,7 +2845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10981080" cy="9731520"/>
+          <a:ext cx="10828440" cy="9731160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2833,9 +2878,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
+      <xdr:colOff>103320</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2845,7 +2890,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10981080" cy="9731520"/>
+          <a:ext cx="10828440" cy="9731160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2883,9 +2928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
+      <xdr:colOff>325080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2895,7 +2940,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="10845720" cy="9829080"/>
+          <a:ext cx="10711800" cy="9828720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2925,9 +2970,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
+      <xdr:colOff>325080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2937,7 +2982,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="10845720" cy="9829080"/>
+          <a:ext cx="10711800" cy="9828720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2974,8 +3019,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,15 +3213,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>33</v>
@@ -3185,7 +3230,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>36</v>
@@ -3207,37 +3252,37 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C4" s="32"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C7" s="31"/>
     </row>
@@ -3271,9 +3316,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,34 +3330,34 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3321,8 +3365,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3340,41 +3384,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3382,8 +3425,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3401,70 +3444,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>36</v>
@@ -3473,16 +3516,16 @@
         <v>36</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
@@ -3493,8 +3536,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3506,15 +3549,14 @@
   </sheetPr>
   <dimension ref="A1:B295"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3522,12 +3564,12 @@
         <v>61</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -3535,7 +3577,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -3543,7 +3585,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -3551,7 +3593,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -3559,7 +3601,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -3567,7 +3609,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -3575,7 +3617,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -3583,7 +3625,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -3591,7 +3633,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -3599,7 +3641,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -3607,7 +3649,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -3615,7 +3657,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -3623,7 +3665,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -3631,7 +3673,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -3639,7 +3681,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -3647,7 +3689,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -3655,7 +3697,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -3663,7 +3705,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -3671,7 +3713,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -3679,7 +3721,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -3687,7 +3729,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -3695,7 +3737,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -3703,7 +3745,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -3711,7 +3753,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -3719,7 +3761,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -3727,7 +3769,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -3735,7 +3777,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -3743,7 +3785,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -3751,7 +3793,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -3759,7 +3801,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -3767,7 +3809,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -3775,7 +3817,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -3783,7 +3825,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -3791,7 +3833,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -3799,7 +3841,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -3807,7 +3849,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -3815,7 +3857,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -3823,7 +3865,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -3831,7 +3873,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -3839,7 +3881,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -3847,7 +3889,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -3855,7 +3897,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -3863,7 +3905,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -3871,7 +3913,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -3879,7 +3921,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -3887,7 +3929,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -3895,7 +3937,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -3903,7 +3945,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -3911,7 +3953,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -3919,7 +3961,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
@@ -3927,7 +3969,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -3935,7 +3977,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
@@ -3943,7 +3985,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0</v>
@@ -3951,7 +3993,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0</v>
@@ -3959,7 +4001,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0</v>
@@ -3967,7 +4009,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
@@ -3975,7 +4017,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
@@ -3983,7 +4025,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0</v>
@@ -3991,7 +4033,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0</v>
@@ -3999,7 +4041,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0</v>
@@ -4007,7 +4049,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0</v>
@@ -4015,7 +4057,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0</v>
@@ -4023,7 +4065,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0</v>
@@ -4031,7 +4073,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0</v>
@@ -4039,7 +4081,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0</v>
@@ -4047,7 +4089,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0</v>
@@ -4055,7 +4097,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0</v>
@@ -4063,7 +4105,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0</v>
@@ -4071,7 +4113,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0</v>
@@ -4079,7 +4121,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0</v>
@@ -4087,7 +4129,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0</v>
@@ -4095,7 +4137,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>0</v>
@@ -4103,7 +4145,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>0</v>
@@ -4111,7 +4153,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>0</v>
@@ -4119,7 +4161,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>0</v>
@@ -4127,7 +4169,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0</v>
@@ -4135,7 +4177,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>0</v>
@@ -4143,7 +4185,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>0</v>
@@ -4151,7 +4193,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>0</v>
@@ -4159,7 +4201,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>0</v>
@@ -4167,7 +4209,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>0</v>
@@ -4175,7 +4217,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>0</v>
@@ -4183,7 +4225,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>0</v>
@@ -4191,7 +4233,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0</v>
@@ -4199,7 +4241,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>0</v>
@@ -4207,7 +4249,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>0</v>
@@ -4215,7 +4257,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>0</v>
@@ -4223,7 +4265,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>0</v>
@@ -4231,7 +4273,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>0</v>
@@ -4239,7 +4281,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>0</v>
@@ -4247,7 +4289,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0</v>
@@ -4255,7 +4297,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0</v>
@@ -4263,7 +4305,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>0</v>
@@ -4271,7 +4313,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>0</v>
@@ -4279,7 +4321,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>0</v>
@@ -4287,7 +4329,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>0</v>
@@ -4295,7 +4337,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0</v>
@@ -4303,7 +4345,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>0</v>
@@ -4311,7 +4353,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0</v>
@@ -4319,7 +4361,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
@@ -4327,7 +4369,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>0</v>
@@ -4335,7 +4377,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>0</v>
@@ -4343,7 +4385,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>0</v>
@@ -4351,7 +4393,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>0</v>
@@ -4359,7 +4401,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0</v>
@@ -4367,7 +4409,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0</v>
@@ -4375,7 +4417,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0</v>
@@ -4383,7 +4425,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0</v>
@@ -4391,7 +4433,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>0</v>
@@ -4399,7 +4441,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>0</v>
@@ -4407,7 +4449,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>0</v>
@@ -4415,7 +4457,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>0</v>
@@ -4423,7 +4465,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>0</v>
@@ -4431,7 +4473,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>0</v>
@@ -4439,7 +4481,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>0</v>
@@ -4447,7 +4489,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>0</v>
@@ -4455,7 +4497,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>0</v>
@@ -4463,7 +4505,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>0</v>
@@ -4471,7 +4513,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>0</v>
@@ -4479,7 +4521,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>0</v>
@@ -4487,7 +4529,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>0</v>
@@ -4495,7 +4537,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>0</v>
@@ -4503,7 +4545,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>0</v>
@@ -4511,7 +4553,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>0</v>
@@ -4519,7 +4561,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>0</v>
@@ -4527,7 +4569,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>0</v>
@@ -4535,7 +4577,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>0</v>
@@ -4543,7 +4585,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>0</v>
@@ -4551,7 +4593,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>0</v>
@@ -4559,7 +4601,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>0</v>
@@ -4567,7 +4609,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>0</v>
@@ -4575,7 +4617,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>0</v>
@@ -4583,7 +4625,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>0</v>
@@ -4591,7 +4633,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>0</v>
@@ -4599,7 +4641,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>0</v>
@@ -4607,7 +4649,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>0</v>
@@ -4615,7 +4657,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>0</v>
@@ -4623,7 +4665,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>0</v>
@@ -4631,7 +4673,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>0</v>
@@ -4639,7 +4681,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>0</v>
@@ -4647,7 +4689,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>0</v>
@@ -4655,7 +4697,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>0</v>
@@ -4663,7 +4705,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>0</v>
@@ -4671,7 +4713,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>0</v>
@@ -4679,7 +4721,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>0</v>
@@ -4687,7 +4729,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>0</v>
@@ -4695,7 +4737,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>0</v>
@@ -4703,7 +4745,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>0</v>
@@ -4711,7 +4753,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>0</v>
@@ -4719,7 +4761,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>0</v>
@@ -4727,7 +4769,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>0</v>
@@ -4735,7 +4777,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>0</v>
@@ -4743,7 +4785,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>0</v>
@@ -4751,7 +4793,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>0</v>
@@ -4759,7 +4801,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>0</v>
@@ -4767,7 +4809,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>0</v>
@@ -4775,7 +4817,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>0</v>
@@ -4783,7 +4825,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>0</v>
@@ -4791,7 +4833,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>0</v>
@@ -4799,7 +4841,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>0</v>
@@ -4807,7 +4849,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>0</v>
@@ -4815,7 +4857,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>0</v>
@@ -4823,7 +4865,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>0</v>
@@ -4831,7 +4873,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>0</v>
@@ -4839,7 +4881,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>0</v>
@@ -4847,7 +4889,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>0</v>
@@ -4855,7 +4897,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>0</v>
@@ -4863,7 +4905,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>0</v>
@@ -4871,7 +4913,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>0</v>
@@ -4879,7 +4921,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>0</v>
@@ -4887,7 +4929,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>0</v>
@@ -4895,7 +4937,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>0</v>
@@ -4903,7 +4945,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>0</v>
@@ -4911,7 +4953,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>0</v>
@@ -4919,7 +4961,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>0</v>
@@ -4927,7 +4969,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>0</v>
@@ -4935,7 +4977,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>0</v>
@@ -4943,7 +4985,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>0</v>
@@ -4951,7 +4993,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>0</v>
@@ -4959,7 +5001,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>0</v>
@@ -4967,7 +5009,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>0</v>
@@ -4975,7 +5017,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>0</v>
@@ -4983,7 +5025,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>0</v>
@@ -4991,7 +5033,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>0</v>
@@ -4999,7 +5041,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>0</v>
@@ -5007,7 +5049,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>0</v>
@@ -5015,7 +5057,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>0</v>
@@ -5023,7 +5065,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>0</v>
@@ -5031,7 +5073,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>0</v>
@@ -5039,7 +5081,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>0</v>
@@ -5047,7 +5089,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>0</v>
@@ -5055,7 +5097,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>0</v>
@@ -5063,7 +5105,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>0</v>
@@ -5071,7 +5113,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>0</v>
@@ -5079,7 +5121,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>0</v>
@@ -5087,7 +5129,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>0</v>
@@ -5095,7 +5137,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>0</v>
@@ -5103,7 +5145,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>0</v>
@@ -5111,7 +5153,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>0</v>
@@ -5119,7 +5161,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>0</v>
@@ -5127,7 +5169,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>0</v>
@@ -5135,7 +5177,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>0</v>
@@ -5143,7 +5185,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>0</v>
@@ -5151,7 +5193,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>0</v>
@@ -5159,7 +5201,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>0</v>
@@ -5167,7 +5209,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>0</v>
@@ -5175,7 +5217,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>0</v>
@@ -5183,7 +5225,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>0</v>
@@ -5191,7 +5233,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>0</v>
@@ -5199,7 +5241,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>0</v>
@@ -5207,7 +5249,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>0</v>
@@ -5215,7 +5257,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>0</v>
@@ -5223,7 +5265,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>0</v>
@@ -5231,7 +5273,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>0</v>
@@ -5239,7 +5281,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>0</v>
@@ -5247,7 +5289,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>0</v>
@@ -5255,7 +5297,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>0</v>
@@ -5263,7 +5305,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>0</v>
@@ -5271,7 +5313,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>0</v>
@@ -5279,7 +5321,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>0</v>
@@ -5287,7 +5329,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>0</v>
@@ -5295,7 +5337,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>0</v>
@@ -5303,7 +5345,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>0</v>
@@ -5311,7 +5353,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>0</v>
@@ -5319,7 +5361,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>0</v>
@@ -5327,7 +5369,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>0</v>
@@ -5335,7 +5377,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>0</v>
@@ -5343,7 +5385,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>0</v>
@@ -5351,7 +5393,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>0</v>
@@ -5359,7 +5401,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>0</v>
@@ -5367,7 +5409,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>0</v>
@@ -5375,7 +5417,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>0</v>
@@ -5383,7 +5425,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>0</v>
@@ -5391,7 +5433,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>0</v>
@@ -5399,7 +5441,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>0</v>
@@ -5407,7 +5449,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>0</v>
@@ -5415,7 +5457,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>0</v>
@@ -5423,7 +5465,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>0</v>
@@ -5431,7 +5473,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>0</v>
@@ -5439,7 +5481,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>0</v>
@@ -5447,7 +5489,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>0</v>
@@ -5455,7 +5497,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>0</v>
@@ -5463,7 +5505,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>0</v>
@@ -5471,7 +5513,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>0</v>
@@ -5479,7 +5521,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>0</v>
@@ -5487,7 +5529,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>0</v>
@@ -5495,7 +5537,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>0</v>
@@ -5503,7 +5545,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>0</v>
@@ -5511,7 +5553,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>0</v>
@@ -5519,7 +5561,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>0</v>
@@ -5527,7 +5569,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>0</v>
@@ -5535,7 +5577,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>0</v>
@@ -5543,7 +5585,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>0</v>
@@ -5551,7 +5593,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>0</v>
@@ -5559,7 +5601,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>0</v>
@@ -5567,7 +5609,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>0</v>
@@ -5575,7 +5617,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>0</v>
@@ -5583,7 +5625,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>0</v>
@@ -5591,7 +5633,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>0</v>
@@ -5599,7 +5641,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>0</v>
@@ -5607,7 +5649,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>0</v>
@@ -5615,7 +5657,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>0</v>
@@ -5623,7 +5665,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>0</v>
@@ -5631,7 +5673,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>0</v>
@@ -5639,7 +5681,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>0</v>
@@ -5647,7 +5689,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>0</v>
@@ -5655,7 +5697,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>0</v>
@@ -5663,7 +5705,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>0</v>
@@ -5671,7 +5713,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>0</v>
@@ -5679,7 +5721,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>0</v>
@@ -5687,7 +5729,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>0</v>
@@ -5695,7 +5737,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>0</v>
@@ -5703,7 +5745,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>0</v>
@@ -5711,7 +5753,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>0</v>
@@ -5719,7 +5761,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>0</v>
@@ -5727,7 +5769,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>0</v>
@@ -5735,7 +5777,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>0</v>
@@ -5743,7 +5785,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>0</v>
@@ -5751,7 +5793,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>0</v>
@@ -5759,7 +5801,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>0</v>
@@ -5767,7 +5809,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>0</v>
@@ -5775,7 +5817,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>0</v>
@@ -5783,7 +5825,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>0</v>
@@ -5791,7 +5833,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>0</v>
@@ -5799,7 +5841,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>0</v>
@@ -5807,7 +5849,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>0</v>
@@ -5815,7 +5857,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>0</v>
@@ -5823,7 +5865,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>0</v>
@@ -5831,7 +5873,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>0</v>
@@ -5839,7 +5881,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>0</v>
@@ -5847,7 +5889,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>0</v>
@@ -5855,7 +5897,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>0</v>
@@ -5863,7 +5905,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>0</v>
@@ -5871,7 +5913,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>0</v>
@@ -5882,8 +5924,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5901,7 +5943,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,18 +5962,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -5958,17 +6000,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,12 +6017,12 @@
         <v>61</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>89</v>
@@ -5989,7 +6030,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>94</v>
@@ -5997,82 +6038,82 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>489</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -6080,8 +6121,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6099,17 +6140,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6117,103 +6157,103 @@
         <v>61</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -6221,8 +6261,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6240,14 +6280,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B1" s="16"/>
     </row>
@@ -6256,703 +6295,703 @@
         <v>64</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6960,8 +6999,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6971,44 +7010,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AW8"/>
+  <dimension ref="A1:AW9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="45" min="27" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="7" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="8" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="49" min="48" style="7" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="50" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.780612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="45" min="27" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="7" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="8" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="49" min="48" style="7" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="50" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7073,7 +7113,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>35</v>
       </c>
@@ -7153,7 +7193,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="40.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
         <v>61</v>
       </c>
@@ -7329,6 +7369,32 @@
       </c>
       <c r="K8" s="6" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7410,26 +7476,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7447,19 +7511,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
@@ -7470,7 +7534,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7478,10 +7542,10 @@
         <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7489,7 +7553,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C5" s="22"/>
     </row>
@@ -7567,26 +7631,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7604,19 +7666,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
@@ -7627,7 +7689,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7635,10 +7697,10 @@
         <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7646,7 +7708,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C5" s="22"/>
     </row>
@@ -7708,21 +7770,21 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
@@ -7732,10 +7794,10 @@
     </row>
     <row r="2" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>36</v>
@@ -7766,24 +7828,24 @@
         <v>1</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B5" s="29" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -7805,24 +7867,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
@@ -7835,7 +7897,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>36</v>
@@ -7846,7 +7908,7 @@
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>61</v>
@@ -7856,6 +7918,34 @@
       </c>
       <c r="D3" s="26" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -7886,19 +7976,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1017" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1017" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -7908,20 +7997,20 @@
     </row>
     <row r="2" customFormat="false" ht="49.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7935,33 +8024,33 @@
         <v>63</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7991,24 +8080,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
@@ -8018,10 +8107,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>36</v>
@@ -8035,7 +8124,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>62</v>
@@ -8045,14 +8134,43 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>99</v>
+      <c r="A4" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -8089,14 +8207,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B1" s="24"/>
     </row>
@@ -8105,12 +8223,12 @@
         <v>61</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -8118,7 +8236,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>

--- a/src/Resources/fixtures/minimal_EE/init.xlsx
+++ b/src/Resources/fixtures/minimal_EE/init.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
     <sheet name="users" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="currencies" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="choices" sheetId="15" state="hidden" r:id="rId16"/>
-    <sheet name="attribute_types" sheetId="16" state="hidden" r:id="rId17"/>
+    <sheet name="attribute_types" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="metric_types" sheetId="17" state="hidden" r:id="rId18"/>
     <sheet name="metric_units" sheetId="18" state="hidden" r:id="rId19"/>
   </sheets>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="626">
   <si>
     <t xml:space="preserve">End user HOWTO</t>
   </si>
@@ -379,6 +379,9 @@
     <t xml:space="preserve">Minimum input length</t>
   </si>
   <si>
+    <t xml:space="preserve">Read only (0/1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">code</t>
   </si>
   <si>
@@ -457,6 +460,9 @@
     <t xml:space="preserve">minimum_input length</t>
   </si>
   <si>
+    <t xml:space="preserve">is_read_only</t>
+  </si>
+  <si>
     <t xml:space="preserve">sku</t>
   </si>
   <si>
@@ -493,6 +499,27 @@
     <t xml:space="preserve">Simple select</t>
   </si>
   <si>
+    <t xml:space="preserve">a_read_only_attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read only Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecture seule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
     <t xml:space="preserve">Family code</t>
   </si>
   <si>
@@ -1718,9 +1745,6 @@
   </si>
   <si>
     <t xml:space="preserve">pim_catalog_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number</t>
   </si>
   <si>
     <t xml:space="preserve">pim_catalog_boolean</t>
@@ -2420,9 +2444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>312840</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2432,7 +2456,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9978120" cy="10166040"/>
+          <a:ext cx="9675360" cy="10165680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2465,9 +2489,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>312840</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2477,7 +2501,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9978120" cy="10166040"/>
+          <a:ext cx="9675360" cy="10165680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2510,9 +2534,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>312840</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2522,7 +2546,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9978120" cy="10166040"/>
+          <a:ext cx="9675360" cy="10165680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2560,9 +2584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>274680</xdr:colOff>
+      <xdr:colOff>273960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2572,7 +2596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9513720" cy="9531000"/>
+          <a:ext cx="9208080" cy="9530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2610,9 +2634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>455760</xdr:colOff>
+      <xdr:colOff>455040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2622,7 +2646,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9542520" cy="9531000"/>
+          <a:ext cx="9246600" cy="9530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2660,9 +2684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>324720</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2672,7 +2696,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="7301520" cy="9867960"/>
+          <a:ext cx="7091280" cy="9867240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2702,9 +2726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>324720</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2714,7 +2738,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="7301520" cy="9867960"/>
+          <a:ext cx="7091280" cy="9867240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2749,9 +2773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
+      <xdr:colOff>76680</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2761,7 +2785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6587640" cy="10386360"/>
+          <a:ext cx="6367680" cy="10385640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2791,9 +2815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
+      <xdr:colOff>76680</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2803,7 +2827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6587640" cy="10386360"/>
+          <a:ext cx="6367680" cy="10385640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2833,9 +2857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>102600</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2845,7 +2869,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10828440" cy="9731160"/>
+          <a:ext cx="10475280" cy="9730440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2878,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>102600</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2890,7 +2914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10828440" cy="9731160"/>
+          <a:ext cx="10475280" cy="9730440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2928,9 +2952,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325080</xdr:colOff>
+      <xdr:colOff>324360</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2940,7 +2964,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="10711800" cy="9828720"/>
+          <a:ext cx="10444320" cy="9828000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2970,9 +2994,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325080</xdr:colOff>
+      <xdr:colOff>324360</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2982,7 +3006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="10711800" cy="9828720"/>
+          <a:ext cx="10444320" cy="9828000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3019,8 +3043,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,15 +3236,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="20.1122448979592"/>
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>33</v>
@@ -3230,7 +3252,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>36</v>
@@ -3241,48 +3263,48 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C4" s="32"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C7" s="31"/>
     </row>
@@ -3316,48 +3338,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3384,40 +3407,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3444,70 +3468,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>36</v>
@@ -3516,16 +3535,16 @@
         <v>36</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>165</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
@@ -3555,21 +3574,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -3577,7 +3597,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -3585,7 +3605,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -3593,7 +3613,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -3601,7 +3621,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -3609,7 +3629,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -3617,7 +3637,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -3625,7 +3645,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -3633,7 +3653,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -3641,7 +3661,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -3649,7 +3669,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -3657,7 +3677,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -3665,7 +3685,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -3673,7 +3693,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -3681,7 +3701,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -3689,7 +3709,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -3697,7 +3717,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -3705,7 +3725,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -3713,7 +3733,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -3721,7 +3741,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -3729,7 +3749,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -3737,7 +3757,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -3745,7 +3765,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -3753,7 +3773,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -3761,7 +3781,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -3769,7 +3789,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -3777,7 +3797,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -3785,7 +3805,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -3793,7 +3813,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -3801,7 +3821,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -3809,7 +3829,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -3817,7 +3837,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -3825,7 +3845,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -3833,7 +3853,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -3841,7 +3861,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -3849,7 +3869,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -3857,7 +3877,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -3865,7 +3885,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -3873,7 +3893,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -3881,7 +3901,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -3889,7 +3909,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -3897,7 +3917,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -3905,7 +3925,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -3913,7 +3933,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -3921,7 +3941,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -3929,7 +3949,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -3937,7 +3957,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -3945,7 +3965,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -3953,7 +3973,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -3961,7 +3981,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
@@ -3969,7 +3989,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -3977,7 +3997,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
@@ -3985,7 +4005,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0</v>
@@ -3993,7 +4013,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0</v>
@@ -4001,7 +4021,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0</v>
@@ -4009,7 +4029,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
@@ -4017,7 +4037,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
@@ -4025,7 +4045,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0</v>
@@ -4033,7 +4053,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0</v>
@@ -4041,7 +4061,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0</v>
@@ -4049,7 +4069,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0</v>
@@ -4057,7 +4077,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0</v>
@@ -4065,7 +4085,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0</v>
@@ -4073,7 +4093,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0</v>
@@ -4081,7 +4101,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0</v>
@@ -4089,7 +4109,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0</v>
@@ -4097,7 +4117,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0</v>
@@ -4105,7 +4125,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0</v>
@@ -4113,7 +4133,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0</v>
@@ -4121,7 +4141,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0</v>
@@ -4129,7 +4149,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0</v>
@@ -4137,7 +4157,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>0</v>
@@ -4145,7 +4165,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>0</v>
@@ -4153,7 +4173,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>0</v>
@@ -4161,7 +4181,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>0</v>
@@ -4169,7 +4189,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0</v>
@@ -4177,7 +4197,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>0</v>
@@ -4185,7 +4205,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>0</v>
@@ -4193,7 +4213,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>0</v>
@@ -4201,7 +4221,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>0</v>
@@ -4209,7 +4229,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>0</v>
@@ -4217,7 +4237,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>0</v>
@@ -4225,7 +4245,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>0</v>
@@ -4233,7 +4253,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0</v>
@@ -4241,7 +4261,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>0</v>
@@ -4249,7 +4269,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>0</v>
@@ -4257,7 +4277,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>0</v>
@@ -4265,7 +4285,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>0</v>
@@ -4273,7 +4293,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>0</v>
@@ -4281,7 +4301,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>0</v>
@@ -4289,7 +4309,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0</v>
@@ -4297,7 +4317,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0</v>
@@ -4305,7 +4325,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>0</v>
@@ -4313,7 +4333,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>0</v>
@@ -4321,7 +4341,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>0</v>
@@ -4329,7 +4349,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>0</v>
@@ -4337,7 +4357,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0</v>
@@ -4345,7 +4365,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>0</v>
@@ -4353,7 +4373,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0</v>
@@ -4361,7 +4381,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
@@ -4369,7 +4389,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>0</v>
@@ -4377,7 +4397,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>0</v>
@@ -4385,7 +4405,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>0</v>
@@ -4393,7 +4413,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>0</v>
@@ -4401,7 +4421,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0</v>
@@ -4409,7 +4429,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0</v>
@@ -4417,7 +4437,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0</v>
@@ -4425,7 +4445,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0</v>
@@ -4433,7 +4453,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>0</v>
@@ -4441,7 +4461,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>0</v>
@@ -4449,7 +4469,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>0</v>
@@ -4457,7 +4477,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>0</v>
@@ -4465,7 +4485,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>0</v>
@@ -4473,7 +4493,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>0</v>
@@ -4481,7 +4501,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>0</v>
@@ -4489,7 +4509,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>0</v>
@@ -4497,7 +4517,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>0</v>
@@ -4505,7 +4525,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>0</v>
@@ -4513,7 +4533,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>0</v>
@@ -4521,7 +4541,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>0</v>
@@ -4529,7 +4549,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>0</v>
@@ -4537,7 +4557,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>0</v>
@@ -4545,7 +4565,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>0</v>
@@ -4553,7 +4573,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>0</v>
@@ -4561,7 +4581,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>0</v>
@@ -4569,7 +4589,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>0</v>
@@ -4577,7 +4597,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>0</v>
@@ -4585,7 +4605,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>0</v>
@@ -4593,7 +4613,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>0</v>
@@ -4601,7 +4621,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>0</v>
@@ -4609,7 +4629,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>0</v>
@@ -4617,7 +4637,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>0</v>
@@ -4625,7 +4645,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>0</v>
@@ -4633,7 +4653,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>0</v>
@@ -4641,7 +4661,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>0</v>
@@ -4649,7 +4669,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>0</v>
@@ -4657,7 +4677,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>0</v>
@@ -4665,7 +4685,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>0</v>
@@ -4673,7 +4693,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>0</v>
@@ -4681,7 +4701,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>0</v>
@@ -4689,7 +4709,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>0</v>
@@ -4697,7 +4717,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>0</v>
@@ -4705,7 +4725,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>0</v>
@@ -4713,7 +4733,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>0</v>
@@ -4721,7 +4741,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>0</v>
@@ -4729,7 +4749,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>0</v>
@@ -4737,7 +4757,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>0</v>
@@ -4745,7 +4765,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>0</v>
@@ -4753,7 +4773,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>0</v>
@@ -4761,7 +4781,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>0</v>
@@ -4769,7 +4789,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>0</v>
@@ -4777,7 +4797,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>0</v>
@@ -4785,7 +4805,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>0</v>
@@ -4793,7 +4813,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>0</v>
@@ -4801,7 +4821,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>0</v>
@@ -4809,7 +4829,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>0</v>
@@ -4817,7 +4837,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>0</v>
@@ -4825,7 +4845,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>0</v>
@@ -4833,7 +4853,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>0</v>
@@ -4841,7 +4861,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>0</v>
@@ -4849,7 +4869,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>0</v>
@@ -4857,7 +4877,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>0</v>
@@ -4865,7 +4885,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>0</v>
@@ -4873,7 +4893,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>0</v>
@@ -4881,7 +4901,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>0</v>
@@ -4889,7 +4909,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>0</v>
@@ -4897,7 +4917,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>0</v>
@@ -4905,7 +4925,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>0</v>
@@ -4913,7 +4933,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>0</v>
@@ -4921,7 +4941,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>0</v>
@@ -4929,7 +4949,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>0</v>
@@ -4937,7 +4957,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>0</v>
@@ -4945,7 +4965,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>0</v>
@@ -4953,7 +4973,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>0</v>
@@ -4961,7 +4981,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>0</v>
@@ -4969,7 +4989,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>0</v>
@@ -4977,7 +4997,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>0</v>
@@ -4985,7 +5005,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>0</v>
@@ -4993,7 +5013,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>0</v>
@@ -5001,7 +5021,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>0</v>
@@ -5009,7 +5029,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>0</v>
@@ -5017,7 +5037,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>0</v>
@@ -5025,7 +5045,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>0</v>
@@ -5033,7 +5053,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>0</v>
@@ -5041,7 +5061,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>0</v>
@@ -5049,7 +5069,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>0</v>
@@ -5057,7 +5077,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>0</v>
@@ -5065,7 +5085,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>0</v>
@@ -5073,7 +5093,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>0</v>
@@ -5081,7 +5101,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>0</v>
@@ -5089,7 +5109,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>0</v>
@@ -5097,7 +5117,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>0</v>
@@ -5105,7 +5125,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>0</v>
@@ -5113,7 +5133,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>0</v>
@@ -5121,7 +5141,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>0</v>
@@ -5129,7 +5149,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>0</v>
@@ -5137,7 +5157,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>0</v>
@@ -5145,7 +5165,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>0</v>
@@ -5153,7 +5173,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>0</v>
@@ -5161,7 +5181,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>0</v>
@@ -5169,7 +5189,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>0</v>
@@ -5177,7 +5197,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>0</v>
@@ -5185,7 +5205,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>0</v>
@@ -5193,7 +5213,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>0</v>
@@ -5201,7 +5221,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>0</v>
@@ -5209,7 +5229,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>0</v>
@@ -5217,7 +5237,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>0</v>
@@ -5225,7 +5245,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>0</v>
@@ -5233,7 +5253,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>0</v>
@@ -5241,7 +5261,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>0</v>
@@ -5249,7 +5269,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>0</v>
@@ -5257,7 +5277,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>0</v>
@@ -5265,7 +5285,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>0</v>
@@ -5273,7 +5293,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>0</v>
@@ -5281,7 +5301,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>0</v>
@@ -5289,7 +5309,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>0</v>
@@ -5297,7 +5317,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>0</v>
@@ -5305,7 +5325,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>0</v>
@@ -5313,7 +5333,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>0</v>
@@ -5321,7 +5341,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>0</v>
@@ -5329,7 +5349,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>0</v>
@@ -5337,7 +5357,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>0</v>
@@ -5345,7 +5365,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>0</v>
@@ -5353,7 +5373,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>0</v>
@@ -5361,7 +5381,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>0</v>
@@ -5369,7 +5389,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>0</v>
@@ -5377,7 +5397,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>0</v>
@@ -5385,7 +5405,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>0</v>
@@ -5393,7 +5413,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>0</v>
@@ -5401,7 +5421,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>0</v>
@@ -5409,7 +5429,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>0</v>
@@ -5417,7 +5437,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>0</v>
@@ -5425,7 +5445,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>0</v>
@@ -5433,7 +5453,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>0</v>
@@ -5441,7 +5461,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>0</v>
@@ -5449,7 +5469,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>0</v>
@@ -5457,7 +5477,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>0</v>
@@ -5465,7 +5485,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>0</v>
@@ -5473,7 +5493,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>0</v>
@@ -5481,7 +5501,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>0</v>
@@ -5489,7 +5509,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>0</v>
@@ -5497,7 +5517,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>0</v>
@@ -5505,7 +5525,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>0</v>
@@ -5513,7 +5533,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>0</v>
@@ -5521,7 +5541,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>0</v>
@@ -5529,7 +5549,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>0</v>
@@ -5537,7 +5557,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>0</v>
@@ -5545,7 +5565,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>0</v>
@@ -5553,7 +5573,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>0</v>
@@ -5561,7 +5581,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>0</v>
@@ -5569,7 +5589,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>0</v>
@@ -5577,7 +5597,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>0</v>
@@ -5585,7 +5605,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>0</v>
@@ -5593,7 +5613,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>0</v>
@@ -5601,7 +5621,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>0</v>
@@ -5609,7 +5629,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>0</v>
@@ -5617,7 +5637,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>0</v>
@@ -5625,7 +5645,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>0</v>
@@ -5633,7 +5653,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>0</v>
@@ -5641,7 +5661,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>0</v>
@@ -5649,7 +5669,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>0</v>
@@ -5657,7 +5677,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>0</v>
@@ -5665,7 +5685,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>0</v>
@@ -5673,7 +5693,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>0</v>
@@ -5681,7 +5701,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>0</v>
@@ -5689,7 +5709,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>0</v>
@@ -5697,7 +5717,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>0</v>
@@ -5705,7 +5725,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>0</v>
@@ -5713,7 +5733,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>0</v>
@@ -5721,7 +5741,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>0</v>
@@ -5729,7 +5749,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>0</v>
@@ -5737,7 +5757,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>0</v>
@@ -5745,7 +5765,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>0</v>
@@ -5753,7 +5773,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>0</v>
@@ -5761,7 +5781,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>0</v>
@@ -5769,7 +5789,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>0</v>
@@ -5777,7 +5797,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>0</v>
@@ -5785,7 +5805,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>0</v>
@@ -5793,7 +5813,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>0</v>
@@ -5801,7 +5821,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>0</v>
@@ -5809,7 +5829,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>0</v>
@@ -5817,7 +5837,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>0</v>
@@ -5825,7 +5845,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>0</v>
@@ -5833,7 +5853,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>0</v>
@@ -5841,7 +5861,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>0</v>
@@ -5849,7 +5869,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>0</v>
@@ -5857,7 +5877,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>0</v>
@@ -5865,7 +5885,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>0</v>
@@ -5873,7 +5893,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>0</v>
@@ -5881,7 +5901,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>0</v>
@@ -5889,7 +5909,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>0</v>
@@ -5897,7 +5917,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>0</v>
@@ -5905,7 +5925,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>0</v>
@@ -5913,7 +5933,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>0</v>
@@ -5942,19 +5962,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5962,18 +5979,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -6000,120 +6017,121 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>508</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -6140,120 +6158,121 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -6280,718 +6299,719 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -7010,45 +7030,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AW9"/>
+  <dimension ref="A1:AW11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.780612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="45" min="27" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="7" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="8" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="49" min="48" style="7" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="50" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="8" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="49" min="48" style="7" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7192,102 +7210,108 @@
       <c r="Z5" s="13" t="s">
         <v>60</v>
       </c>
+      <c r="AA5" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="40.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z6" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1</v>
@@ -7341,19 +7365,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>2</v>
@@ -7373,19 +7397,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>3</v>
@@ -7394,6 +7418,85 @@
         <v>0</v>
       </c>
       <c r="H9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0"/>
+      <c r="AA10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7476,24 +7579,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7511,19 +7614,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
@@ -7534,7 +7637,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="20" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7542,24 +7645,24 @@
         <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="18" t="n">
         <v>1</v>
@@ -7586,7 +7689,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -7631,24 +7734,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7666,19 +7769,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
@@ -7689,7 +7792,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="20" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7697,24 +7800,24 @@
         <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="18" t="n">
         <v>1</v>
@@ -7775,16 +7878,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
@@ -7794,10 +7896,10 @@
     </row>
     <row r="2" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>36</v>
@@ -7808,44 +7910,44 @@
     </row>
     <row r="3" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4" s="28" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B5" s="29" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -7869,22 +7971,21 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
@@ -7897,7 +7998,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>36</v>
@@ -7908,44 +8009,44 @@
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -7976,18 +8077,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1017" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -7997,60 +8098,60 @@
     </row>
     <row r="2" customFormat="false" ht="49.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -8088,16 +8189,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.2602040816326"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
@@ -8107,10 +8207,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>36</v>
@@ -8121,56 +8221,56 @@
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="27" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -8207,28 +8307,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B1" s="24"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -8236,7 +8335,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>

--- a/src/Resources/fixtures/minimal_EE/init.xlsx
+++ b/src/Resources/fixtures/minimal_EE/init.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
     <sheet name="users" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="currencies" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="choices" sheetId="15" state="hidden" r:id="rId16"/>
-    <sheet name="attribute_types" sheetId="16" state="hidden" r:id="rId17"/>
+    <sheet name="attribute_types" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="metric_types" sheetId="17" state="hidden" r:id="rId18"/>
     <sheet name="metric_units" sheetId="18" state="hidden" r:id="rId19"/>
   </sheets>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="626">
   <si>
     <t xml:space="preserve">End user HOWTO</t>
   </si>
@@ -379,6 +379,9 @@
     <t xml:space="preserve">Minimum input length</t>
   </si>
   <si>
+    <t xml:space="preserve">Read only (0/1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">code</t>
   </si>
   <si>
@@ -457,6 +460,9 @@
     <t xml:space="preserve">minimum_input length</t>
   </si>
   <si>
+    <t xml:space="preserve">is_read_only</t>
+  </si>
+  <si>
     <t xml:space="preserve">sku</t>
   </si>
   <si>
@@ -481,6 +487,39 @@
     <t xml:space="preserve">Text</t>
   </si>
   <si>
+    <t xml:space="preserve">my_select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélecteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_read_only_attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read only Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecture seule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
     <t xml:space="preserve">Family code</t>
   </si>
   <si>
@@ -544,6 +583,24 @@
     <t xml:space="preserve">attribute</t>
   </si>
   <si>
+    <t xml:space="preserve">foo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Channel properties</t>
   </si>
   <si>
@@ -598,6 +655,24 @@
     <t xml:space="preserve">Main category</t>
   </si>
   <si>
+    <t xml:space="preserve">main_child_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main first child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premier enfant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main_child_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main second child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deuxième enfant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Group type properties</t>
   </si>
   <si>
@@ -1663,9 +1738,6 @@
     <t xml:space="preserve">pim_catalog_simpleselect</t>
   </si>
   <si>
-    <t xml:space="preserve">Simple select</t>
-  </si>
-  <si>
     <t xml:space="preserve">pim_catalog_price_collection</t>
   </si>
   <si>
@@ -1673,9 +1745,6 @@
   </si>
   <si>
     <t xml:space="preserve">pim_catalog_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number</t>
   </si>
   <si>
     <t xml:space="preserve">pim_catalog_boolean</t>
@@ -2375,9 +2444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2387,7 +2456,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9685800" cy="9531360"/>
+          <a:ext cx="9675360" cy="10165680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2420,9 +2489,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2432,7 +2501,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9685800" cy="9531360"/>
+          <a:ext cx="9675360" cy="10165680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2465,9 +2534,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2477,7 +2546,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9685800" cy="9531360"/>
+          <a:ext cx="9675360" cy="10165680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2515,9 +2584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>275040</xdr:colOff>
+      <xdr:colOff>273960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2527,7 +2596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9676080" cy="9531360"/>
+          <a:ext cx="9208080" cy="9530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2565,9 +2634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>456120</xdr:colOff>
+      <xdr:colOff>455040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2577,7 +2646,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9695160" cy="9531360"/>
+          <a:ext cx="9246600" cy="9530280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2615,9 +2684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325080</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2627,7 +2696,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="7406640" cy="9868320"/>
+          <a:ext cx="7091280" cy="9867240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2657,9 +2726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325080</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2669,7 +2738,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="7406640" cy="9868320"/>
+          <a:ext cx="7091280" cy="9867240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2704,9 +2773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>76680</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2716,7 +2785,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6673680" cy="10386720"/>
+          <a:ext cx="6367680" cy="10385640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2746,9 +2815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>76680</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2758,7 +2827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6673680" cy="10386720"/>
+          <a:ext cx="6367680" cy="10385640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2788,9 +2857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
+      <xdr:colOff>102600</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2800,7 +2869,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10981080" cy="9731520"/>
+          <a:ext cx="10475280" cy="9730440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2833,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
+      <xdr:colOff>102600</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2845,7 +2914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10981080" cy="9731520"/>
+          <a:ext cx="10475280" cy="9730440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2883,9 +2952,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
+      <xdr:colOff>324360</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2895,7 +2964,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="10845720" cy="9829080"/>
+          <a:ext cx="10444320" cy="9828000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2925,9 +2994,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
+      <xdr:colOff>324360</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2937,7 +3006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="10845720" cy="9829080"/>
+          <a:ext cx="10444320" cy="9828000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2974,8 +3043,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.91326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,15 +3236,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="20.1122448979592"/>
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>33</v>
@@ -3185,7 +3252,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>36</v>
@@ -3196,48 +3263,48 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C4" s="32"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C7" s="31"/>
     </row>
@@ -3271,49 +3338,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3321,8 +3388,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3340,41 +3407,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3382,8 +3449,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3401,70 +3468,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>36</v>
@@ -3473,16 +3535,16 @@
         <v>36</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
@@ -3493,8 +3555,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3506,28 +3568,28 @@
   </sheetPr>
   <dimension ref="A1:B295"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -3535,7 +3597,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -3543,7 +3605,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -3551,7 +3613,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -3559,7 +3621,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -3567,7 +3629,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -3575,7 +3637,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -3583,7 +3645,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -3591,7 +3653,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -3599,7 +3661,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -3607,7 +3669,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -3615,7 +3677,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -3623,7 +3685,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -3631,7 +3693,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -3639,7 +3701,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -3647,7 +3709,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -3655,7 +3717,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -3663,7 +3725,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -3671,7 +3733,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -3679,7 +3741,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -3687,7 +3749,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -3695,7 +3757,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -3703,7 +3765,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -3711,7 +3773,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -3719,7 +3781,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -3727,7 +3789,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -3735,7 +3797,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -3743,7 +3805,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -3751,7 +3813,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -3759,7 +3821,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -3767,7 +3829,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -3775,7 +3837,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -3783,7 +3845,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -3791,7 +3853,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -3799,7 +3861,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -3807,7 +3869,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -3815,7 +3877,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -3823,7 +3885,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -3831,7 +3893,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -3839,7 +3901,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -3847,7 +3909,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -3855,7 +3917,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -3863,7 +3925,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -3871,7 +3933,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -3879,7 +3941,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -3887,7 +3949,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -3895,7 +3957,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -3903,7 +3965,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -3911,7 +3973,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -3919,7 +3981,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0</v>
@@ -3927,7 +3989,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
@@ -3935,7 +3997,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0</v>
@@ -3943,7 +4005,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0</v>
@@ -3951,7 +4013,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0</v>
@@ -3959,7 +4021,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0</v>
@@ -3967,7 +4029,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
@@ -3975,7 +4037,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
@@ -3983,7 +4045,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0</v>
@@ -3991,7 +4053,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0</v>
@@ -3999,7 +4061,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0</v>
@@ -4007,7 +4069,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0</v>
@@ -4015,7 +4077,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0</v>
@@ -4023,7 +4085,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0</v>
@@ -4031,7 +4093,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0</v>
@@ -4039,7 +4101,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0</v>
@@ -4047,7 +4109,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0</v>
@@ -4055,7 +4117,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0</v>
@@ -4063,7 +4125,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0</v>
@@ -4071,7 +4133,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0</v>
@@ -4079,7 +4141,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0</v>
@@ -4087,7 +4149,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0</v>
@@ -4095,7 +4157,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>0</v>
@@ -4103,7 +4165,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>0</v>
@@ -4111,7 +4173,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>0</v>
@@ -4119,7 +4181,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>0</v>
@@ -4127,7 +4189,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0</v>
@@ -4135,7 +4197,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>0</v>
@@ -4143,7 +4205,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>0</v>
@@ -4151,7 +4213,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>0</v>
@@ -4159,7 +4221,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>0</v>
@@ -4167,7 +4229,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>0</v>
@@ -4175,7 +4237,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>0</v>
@@ -4183,7 +4245,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>0</v>
@@ -4191,7 +4253,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0</v>
@@ -4199,7 +4261,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>0</v>
@@ -4207,7 +4269,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>0</v>
@@ -4215,7 +4277,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>0</v>
@@ -4223,7 +4285,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>0</v>
@@ -4231,7 +4293,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>0</v>
@@ -4239,7 +4301,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>0</v>
@@ -4247,7 +4309,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0</v>
@@ -4255,7 +4317,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0</v>
@@ -4263,7 +4325,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>0</v>
@@ -4271,7 +4333,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>0</v>
@@ -4279,7 +4341,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>0</v>
@@ -4287,7 +4349,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>0</v>
@@ -4295,7 +4357,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0</v>
@@ -4303,7 +4365,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>0</v>
@@ -4311,7 +4373,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0</v>
@@ -4319,7 +4381,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
@@ -4327,7 +4389,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>0</v>
@@ -4335,7 +4397,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>0</v>
@@ -4343,7 +4405,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>0</v>
@@ -4351,7 +4413,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>0</v>
@@ -4359,7 +4421,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0</v>
@@ -4367,7 +4429,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0</v>
@@ -4375,7 +4437,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0</v>
@@ -4383,7 +4445,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0</v>
@@ -4391,7 +4453,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>0</v>
@@ -4399,7 +4461,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>0</v>
@@ -4407,7 +4469,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>0</v>
@@ -4415,7 +4477,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>0</v>
@@ -4423,7 +4485,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>0</v>
@@ -4431,7 +4493,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>0</v>
@@ -4439,7 +4501,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>0</v>
@@ -4447,7 +4509,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>0</v>
@@ -4455,7 +4517,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>0</v>
@@ -4463,7 +4525,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>0</v>
@@ -4471,7 +4533,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>0</v>
@@ -4479,7 +4541,7 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>0</v>
@@ -4487,7 +4549,7 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>0</v>
@@ -4495,7 +4557,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>0</v>
@@ -4503,7 +4565,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>0</v>
@@ -4511,7 +4573,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>0</v>
@@ -4519,7 +4581,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>0</v>
@@ -4527,7 +4589,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>0</v>
@@ -4535,7 +4597,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>0</v>
@@ -4543,7 +4605,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>0</v>
@@ -4551,7 +4613,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>0</v>
@@ -4559,7 +4621,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>0</v>
@@ -4567,7 +4629,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>0</v>
@@ -4575,7 +4637,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>0</v>
@@ -4583,7 +4645,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>0</v>
@@ -4591,7 +4653,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>0</v>
@@ -4599,7 +4661,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>0</v>
@@ -4607,7 +4669,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>0</v>
@@ -4615,7 +4677,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>0</v>
@@ -4623,7 +4685,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>0</v>
@@ -4631,7 +4693,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>0</v>
@@ -4639,7 +4701,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>0</v>
@@ -4647,7 +4709,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>0</v>
@@ -4655,7 +4717,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>0</v>
@@ -4663,7 +4725,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>0</v>
@@ -4671,7 +4733,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>0</v>
@@ -4679,7 +4741,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>0</v>
@@ -4687,7 +4749,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>0</v>
@@ -4695,7 +4757,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>0</v>
@@ -4703,7 +4765,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>0</v>
@@ -4711,7 +4773,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>0</v>
@@ -4719,7 +4781,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>0</v>
@@ -4727,7 +4789,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>0</v>
@@ -4735,7 +4797,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>0</v>
@@ -4743,7 +4805,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>0</v>
@@ -4751,7 +4813,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>0</v>
@@ -4759,7 +4821,7 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>0</v>
@@ -4767,7 +4829,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>0</v>
@@ -4775,7 +4837,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>0</v>
@@ -4783,7 +4845,7 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>0</v>
@@ -4791,7 +4853,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>0</v>
@@ -4799,7 +4861,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>0</v>
@@ -4807,7 +4869,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>0</v>
@@ -4815,7 +4877,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>0</v>
@@ -4823,7 +4885,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>0</v>
@@ -4831,7 +4893,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>0</v>
@@ -4839,7 +4901,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>0</v>
@@ -4847,7 +4909,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>0</v>
@@ -4855,7 +4917,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>0</v>
@@ -4863,7 +4925,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>0</v>
@@ -4871,7 +4933,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>0</v>
@@ -4879,7 +4941,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>0</v>
@@ -4887,7 +4949,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>0</v>
@@ -4895,7 +4957,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>0</v>
@@ -4903,7 +4965,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>0</v>
@@ -4911,7 +4973,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>0</v>
@@ -4919,7 +4981,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>0</v>
@@ -4927,7 +4989,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>0</v>
@@ -4935,7 +4997,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>0</v>
@@ -4943,7 +5005,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>0</v>
@@ -4951,7 +5013,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>0</v>
@@ -4959,7 +5021,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="B181" s="0" t="n">
         <v>0</v>
@@ -4967,7 +5029,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="B182" s="0" t="n">
         <v>0</v>
@@ -4975,7 +5037,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="B183" s="0" t="n">
         <v>0</v>
@@ -4983,7 +5045,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="B184" s="0" t="n">
         <v>0</v>
@@ -4991,7 +5053,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="B185" s="0" t="n">
         <v>0</v>
@@ -4999,7 +5061,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="B186" s="0" t="n">
         <v>0</v>
@@ -5007,7 +5069,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="B187" s="0" t="n">
         <v>0</v>
@@ -5015,7 +5077,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="B188" s="0" t="n">
         <v>0</v>
@@ -5023,7 +5085,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="B189" s="0" t="n">
         <v>0</v>
@@ -5031,7 +5093,7 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="B190" s="0" t="n">
         <v>0</v>
@@ -5039,7 +5101,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="B191" s="0" t="n">
         <v>0</v>
@@ -5047,7 +5109,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="B192" s="0" t="n">
         <v>0</v>
@@ -5055,7 +5117,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="B193" s="0" t="n">
         <v>0</v>
@@ -5063,7 +5125,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="B194" s="0" t="n">
         <v>0</v>
@@ -5071,7 +5133,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="B195" s="0" t="n">
         <v>0</v>
@@ -5079,7 +5141,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="B196" s="0" t="n">
         <v>0</v>
@@ -5087,7 +5149,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="B197" s="0" t="n">
         <v>0</v>
@@ -5095,7 +5157,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="B198" s="0" t="n">
         <v>0</v>
@@ -5103,7 +5165,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="B199" s="0" t="n">
         <v>0</v>
@@ -5111,7 +5173,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="B200" s="0" t="n">
         <v>0</v>
@@ -5119,7 +5181,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="B201" s="0" t="n">
         <v>0</v>
@@ -5127,7 +5189,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="B202" s="0" t="n">
         <v>0</v>
@@ -5135,7 +5197,7 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="B203" s="0" t="n">
         <v>0</v>
@@ -5143,7 +5205,7 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="B204" s="0" t="n">
         <v>0</v>
@@ -5151,7 +5213,7 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="B205" s="0" t="n">
         <v>0</v>
@@ -5159,7 +5221,7 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="B206" s="0" t="n">
         <v>0</v>
@@ -5167,7 +5229,7 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="B207" s="0" t="n">
         <v>0</v>
@@ -5175,7 +5237,7 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="B208" s="0" t="n">
         <v>0</v>
@@ -5183,7 +5245,7 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>0</v>
@@ -5191,7 +5253,7 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="B210" s="0" t="n">
         <v>0</v>
@@ -5199,7 +5261,7 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="B211" s="0" t="n">
         <v>0</v>
@@ -5207,7 +5269,7 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="B212" s="0" t="n">
         <v>0</v>
@@ -5215,7 +5277,7 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="B213" s="0" t="n">
         <v>0</v>
@@ -5223,7 +5285,7 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="B214" s="0" t="n">
         <v>0</v>
@@ -5231,7 +5293,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="B215" s="0" t="n">
         <v>0</v>
@@ -5239,7 +5301,7 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B216" s="0" t="n">
         <v>0</v>
@@ -5247,7 +5309,7 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="B217" s="0" t="n">
         <v>0</v>
@@ -5255,7 +5317,7 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="B218" s="0" t="n">
         <v>0</v>
@@ -5263,7 +5325,7 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="B219" s="0" t="n">
         <v>0</v>
@@ -5271,7 +5333,7 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="B220" s="0" t="n">
         <v>0</v>
@@ -5279,7 +5341,7 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="B221" s="0" t="n">
         <v>0</v>
@@ -5287,7 +5349,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="B222" s="0" t="n">
         <v>0</v>
@@ -5295,7 +5357,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="B223" s="0" t="n">
         <v>0</v>
@@ -5303,7 +5365,7 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="B224" s="0" t="n">
         <v>0</v>
@@ -5311,7 +5373,7 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="B225" s="0" t="n">
         <v>0</v>
@@ -5319,7 +5381,7 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="B226" s="0" t="n">
         <v>0</v>
@@ -5327,7 +5389,7 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="B227" s="0" t="n">
         <v>0</v>
@@ -5335,7 +5397,7 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="B228" s="0" t="n">
         <v>0</v>
@@ -5343,7 +5405,7 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="B229" s="0" t="n">
         <v>0</v>
@@ -5351,7 +5413,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="B230" s="0" t="n">
         <v>0</v>
@@ -5359,7 +5421,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="B231" s="0" t="n">
         <v>0</v>
@@ -5367,7 +5429,7 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="B232" s="0" t="n">
         <v>0</v>
@@ -5375,7 +5437,7 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="B233" s="0" t="n">
         <v>0</v>
@@ -5383,7 +5445,7 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="B234" s="0" t="n">
         <v>0</v>
@@ -5391,7 +5453,7 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="B235" s="0" t="n">
         <v>0</v>
@@ -5399,7 +5461,7 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="B236" s="0" t="n">
         <v>0</v>
@@ -5407,7 +5469,7 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>0</v>
@@ -5415,7 +5477,7 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="B238" s="0" t="n">
         <v>0</v>
@@ -5423,7 +5485,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="B239" s="0" t="n">
         <v>0</v>
@@ -5431,7 +5493,7 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="B240" s="0" t="n">
         <v>0</v>
@@ -5439,7 +5501,7 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="B241" s="0" t="n">
         <v>0</v>
@@ -5447,7 +5509,7 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="B242" s="0" t="n">
         <v>0</v>
@@ -5455,7 +5517,7 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="B243" s="0" t="n">
         <v>0</v>
@@ -5463,7 +5525,7 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="B244" s="0" t="n">
         <v>0</v>
@@ -5471,7 +5533,7 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="B245" s="0" t="n">
         <v>0</v>
@@ -5479,7 +5541,7 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>0</v>
@@ -5487,7 +5549,7 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="B247" s="0" t="n">
         <v>0</v>
@@ -5495,7 +5557,7 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="B248" s="0" t="n">
         <v>0</v>
@@ -5503,7 +5565,7 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="B249" s="0" t="n">
         <v>0</v>
@@ -5511,7 +5573,7 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="B250" s="0" t="n">
         <v>0</v>
@@ -5519,7 +5581,7 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="B251" s="0" t="n">
         <v>0</v>
@@ -5527,7 +5589,7 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="B252" s="0" t="n">
         <v>0</v>
@@ -5535,7 +5597,7 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="B253" s="0" t="n">
         <v>0</v>
@@ -5543,7 +5605,7 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="B254" s="0" t="n">
         <v>0</v>
@@ -5551,7 +5613,7 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="B255" s="0" t="n">
         <v>0</v>
@@ -5559,7 +5621,7 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>0</v>
@@ -5567,7 +5629,7 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>0</v>
@@ -5575,7 +5637,7 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>0</v>
@@ -5583,7 +5645,7 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>0</v>
@@ -5591,7 +5653,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>0</v>
@@ -5599,7 +5661,7 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>0</v>
@@ -5607,7 +5669,7 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>0</v>
@@ -5615,7 +5677,7 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>0</v>
@@ -5623,7 +5685,7 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>0</v>
@@ -5631,7 +5693,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>0</v>
@@ -5639,7 +5701,7 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>0</v>
@@ -5647,7 +5709,7 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>0</v>
@@ -5655,7 +5717,7 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>0</v>
@@ -5663,7 +5725,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>0</v>
@@ -5671,7 +5733,7 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>0</v>
@@ -5679,7 +5741,7 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>0</v>
@@ -5687,7 +5749,7 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>0</v>
@@ -5695,7 +5757,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>0</v>
@@ -5703,7 +5765,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>0</v>
@@ -5711,7 +5773,7 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>0</v>
@@ -5719,7 +5781,7 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>0</v>
@@ -5727,7 +5789,7 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>0</v>
@@ -5735,7 +5797,7 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>0</v>
@@ -5743,7 +5805,7 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>0</v>
@@ -5751,7 +5813,7 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>0</v>
@@ -5759,7 +5821,7 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>0</v>
@@ -5767,7 +5829,7 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>0</v>
@@ -5775,7 +5837,7 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>0</v>
@@ -5783,7 +5845,7 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>0</v>
@@ -5791,7 +5853,7 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>0</v>
@@ -5799,7 +5861,7 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>0</v>
@@ -5807,7 +5869,7 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>0</v>
@@ -5815,7 +5877,7 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>0</v>
@@ -5823,7 +5885,7 @@
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>0</v>
@@ -5831,7 +5893,7 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>0</v>
@@ -5839,7 +5901,7 @@
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>0</v>
@@ -5847,7 +5909,7 @@
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>0</v>
@@ -5855,7 +5917,7 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>0</v>
@@ -5863,7 +5925,7 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>0</v>
@@ -5871,7 +5933,7 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>0</v>
@@ -5882,8 +5944,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5900,19 +5962,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,18 +5979,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -5958,121 +6017,121 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>489</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>493</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -6080,8 +6139,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6099,121 +6158,121 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -6221,8 +6280,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6240,719 +6299,719 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>562</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -6960,8 +7019,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6971,44 +7030,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AW8"/>
+  <dimension ref="A1:AW11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S12" activeCellId="0" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="45" min="27" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="7" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="8" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="49" min="48" style="7" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="50" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="8" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="49" min="48" style="7" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7073,7 +7131,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>35</v>
       </c>
@@ -7152,102 +7210,108 @@
       <c r="Z5" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AA5" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="40.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z6" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1</v>
@@ -7301,19 +7365,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>2</v>
@@ -7329,6 +7393,111 @@
       </c>
       <c r="K8" s="6" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0"/>
+      <c r="AA10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7410,26 +7579,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7447,19 +7614,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
@@ -7470,7 +7637,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="20" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7478,24 +7645,24 @@
         <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="18" t="n">
         <v>1</v>
@@ -7522,7 +7689,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -7567,26 +7734,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7604,19 +7769,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
@@ -7627,7 +7792,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="20" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7635,24 +7800,24 @@
         <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="18" t="n">
         <v>1</v>
@@ -7708,21 +7873,20 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
@@ -7732,10 +7896,10 @@
     </row>
     <row r="2" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>36</v>
@@ -7746,44 +7910,44 @@
     </row>
     <row r="3" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4" s="28" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B5" s="29" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -7805,24 +7969,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
@@ -7835,7 +7998,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>36</v>
@@ -7846,16 +8009,44 @@
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -7886,19 +8077,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1017" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -7908,60 +8098,60 @@
     </row>
     <row r="2" customFormat="false" ht="49.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7991,24 +8181,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.2602040816326"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25" t="s">
@@ -8018,10 +8207,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>36</v>
@@ -8032,27 +8221,56 @@
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>99</v>
+      <c r="A4" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -8089,28 +8307,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B1" s="24"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -8118,7 +8335,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>

--- a/src/Resources/fixtures/minimal_EE/init.xlsx
+++ b/src/Resources/fixtures/minimal_EE/init.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -775,16 +775,16 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">catalog_locale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_locale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catalog_scope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default_tree</t>
+    <t xml:space="preserve">catalog_default_locale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_default_locale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalog_default_scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_category_tree</t>
   </si>
   <si>
     <t xml:space="preserve">roles</t>
@@ -2621,9 +2621,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>312120</xdr:colOff>
+      <xdr:colOff>311760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2633,7 +2633,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9513000" cy="10163520"/>
+          <a:ext cx="9350640" cy="10163160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2642,7 +2642,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2663,9 +2663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>312120</xdr:colOff>
+      <xdr:colOff>311760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2675,7 +2675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9513000" cy="10163520"/>
+          <a:ext cx="9350640" cy="10163160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2684,7 +2684,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2705,9 +2705,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>312120</xdr:colOff>
+      <xdr:colOff>311760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2717,7 +2717,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9513000" cy="10163520"/>
+          <a:ext cx="9350640" cy="10163160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2726,7 +2726,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2747,9 +2747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>685440</xdr:colOff>
+      <xdr:colOff>685080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2759,7 +2759,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9886320" cy="9537120"/>
+          <a:ext cx="9723960" cy="9536760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2792,9 +2792,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>685440</xdr:colOff>
+      <xdr:colOff>685080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2804,7 +2804,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9886320" cy="9537120"/>
+          <a:ext cx="9723960" cy="9536760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2837,9 +2837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>685440</xdr:colOff>
+      <xdr:colOff>685080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2849,7 +2849,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9886320" cy="9537120"/>
+          <a:ext cx="9723960" cy="9536760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2887,9 +2887,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>273600</xdr:colOff>
+      <xdr:colOff>273240</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2899,7 +2899,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9055440" cy="9529920"/>
+          <a:ext cx="8912160" cy="9529560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2908,7 +2908,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2929,9 +2929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>342720</xdr:colOff>
+      <xdr:colOff>342360</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2941,7 +2941,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9905760" cy="9532080"/>
+          <a:ext cx="9743400" cy="9531720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2979,9 +2979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>454680</xdr:colOff>
+      <xdr:colOff>454320</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2991,7 +2991,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9093600" cy="9529920"/>
+          <a:ext cx="8950320" cy="9529560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3000,7 +3000,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3021,9 +3021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>475920</xdr:colOff>
+      <xdr:colOff>475560</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3033,7 +3033,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9896040" cy="9532080"/>
+          <a:ext cx="9733680" cy="9531720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3071,9 +3071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>323640</xdr:colOff>
+      <xdr:colOff>323280</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3083,7 +3083,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="7129080" cy="9689760"/>
+          <a:ext cx="7023960" cy="9689400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3113,9 +3113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>323640</xdr:colOff>
+      <xdr:colOff>323280</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3125,7 +3125,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="7129080" cy="9689760"/>
+          <a:ext cx="7023960" cy="9689400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3160,9 +3160,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>75960</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3172,7 +3172,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6262560" cy="10351080"/>
+          <a:ext cx="6157440" cy="10350720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3202,9 +3202,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>75960</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3214,7 +3214,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="6262560" cy="10351080"/>
+          <a:ext cx="6157440" cy="10350720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3244,9 +3244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3256,7 +3256,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10569960" cy="9698400"/>
+          <a:ext cx="10398240" cy="9698040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3265,7 +3265,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3286,9 +3286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3298,7 +3298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10569960" cy="9698400"/>
+          <a:ext cx="10398240" cy="9698040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3307,7 +3307,7 @@
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln w="9360">
-          <a:miter/>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -3328,9 +3328,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>456840</xdr:colOff>
+      <xdr:colOff>456480</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3340,7 +3340,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9724320" cy="9542160"/>
+          <a:ext cx="9571680" cy="9541800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3373,9 +3373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>456840</xdr:colOff>
+      <xdr:colOff>456480</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3385,7 +3385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9724320" cy="9542160"/>
+          <a:ext cx="9571680" cy="9541800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3423,9 +3423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>323640</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3435,7 +3435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="10443960" cy="9824400"/>
+          <a:ext cx="10301040" cy="9824040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3465,9 +3465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>323640</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3477,7 +3477,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="81000" y="0"/>
-          <a:ext cx="10443960" cy="9824400"/>
+          <a:ext cx="10301040" cy="9824040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3514,8 +3514,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,10 +3708,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="30" width="42.25"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="30" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3811,9 +3811,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0663265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3861,8 +3860,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3880,9 +3879,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3922,8 +3920,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3935,21 +3933,21 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,8 +4031,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4052,9 +4050,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6422,8 +6419,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6441,7 +6438,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6498,9 +6495,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6620,8 +6616,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6639,9 +6635,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6809,8 +6804,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6828,9 +6823,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7980,8 +7974,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7999,38 +7993,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="45" min="28" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="7" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="8" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="49" min="48" style="7" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="50" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="45" min="28" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="7" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="8" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="49" min="48" style="7" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="50" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8543,26 +8537,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8700,26 +8692,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1000" min="998" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="18" min="16" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="22" min="20" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="8" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="7" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="7" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="997" min="27" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1021" min="1001" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8846,11 +8836,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8940,17 +8930,17 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9047,14 +9037,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1017" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="19" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1017" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9160,11 +9149,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9279,9 +9268,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
